--- a/VBA_Template_2005_andOnwards/TemplateWithoutVBA.xlsx
+++ b/VBA_Template_2005_andOnwards/TemplateWithoutVBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d048933\Source\integrated-business-planning-excel-add-in-templates\VBA_Template_2005_Onwards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I529952\Desktop\charts\New Chart files\2005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5D75D-489B-459F-86C2-E37DA8972152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F3FAB0-1CD2-4EC9-8A8B-2852F72E43C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="374" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBPFormattingSheet" sheetId="9" state="hidden" r:id="rId1"/>
@@ -1097,18 +1097,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1211,6 +1199,20 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1728,7 +1730,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1819,51 +1821,51 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1903,11 +1905,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1935,14 +1937,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1967,6 +1969,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2082,27 +2088,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2909,7 +2911,7 @@
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2976,7 +2978,7 @@
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3012,7 +3014,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3053,7 +3055,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3099,7 +3101,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3140,7 +3142,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3186,7 +3188,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3227,7 +3229,7 @@
                   <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3263,7 +3265,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3304,7 +3306,7 @@
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3350,7 +3352,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3391,7 +3393,7 @@
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3437,7 +3439,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3478,7 +3480,7 @@
                   <a14:compatExt spid="_x0000_s9224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3524,7 +3526,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3565,7 +3567,7 @@
                   <a14:compatExt spid="_x0000_s9225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3601,7 +3603,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3642,7 +3644,7 @@
                   <a14:compatExt spid="_x0000_s9226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3678,7 +3680,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3719,7 +3721,7 @@
                   <a14:compatExt spid="_x0000_s9227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3765,7 +3767,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3806,7 +3808,7 @@
                   <a14:compatExt spid="_x0000_s9228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3852,7 +3854,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3893,7 +3895,7 @@
                   <a14:compatExt spid="_x0000_s9229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3939,7 +3941,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3980,7 +3982,7 @@
                   <a14:compatExt spid="_x0000_s9230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4026,7 +4028,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4067,7 +4069,7 @@
                   <a14:compatExt spid="_x0000_s9231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4113,7 +4115,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4154,7 +4156,7 @@
                   <a14:compatExt spid="_x0000_s9232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4183,7 +4185,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4223,7 +4225,7 @@
                   <a14:compatExt spid="_x0000_s9233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4252,7 +4254,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4292,7 +4294,7 @@
                   <a14:compatExt spid="_x0000_s9234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4328,7 +4330,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4369,7 +4371,7 @@
                   <a14:compatExt spid="_x0000_s9235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4405,7 +4407,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4446,7 +4448,7 @@
                   <a14:compatExt spid="_x0000_s9236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4492,7 +4494,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4533,7 +4535,7 @@
                   <a14:compatExt spid="_x0000_s9237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4579,7 +4581,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4620,7 +4622,7 @@
                   <a14:compatExt spid="_x0000_s9238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4666,7 +4668,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4707,7 +4709,7 @@
                   <a14:compatExt spid="_x0000_s9239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4753,7 +4755,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4794,7 +4796,7 @@
                   <a14:compatExt spid="_x0000_s9240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4840,7 +4842,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4881,7 +4883,7 @@
                   <a14:compatExt spid="_x0000_s9241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4910,7 +4912,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -4950,7 +4952,7 @@
                   <a14:compatExt spid="_x0000_s9242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4979,7 +4981,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5019,7 +5021,7 @@
                   <a14:compatExt spid="_x0000_s9243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5086,7 +5088,7 @@
                   <a14:compatExt spid="_x0000_s9244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5122,7 +5124,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5163,7 +5165,7 @@
                   <a14:compatExt spid="_x0000_s9245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5209,7 +5211,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5250,7 +5252,7 @@
                   <a14:compatExt spid="_x0000_s9246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5296,7 +5298,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5337,7 +5339,7 @@
                   <a14:compatExt spid="_x0000_s9247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5383,7 +5385,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5424,7 +5426,7 @@
                   <a14:compatExt spid="_x0000_s9248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5470,7 +5472,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5511,7 +5513,7 @@
                   <a14:compatExt spid="_x0000_s9249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5557,7 +5559,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5598,7 +5600,7 @@
                   <a14:compatExt spid="_x0000_s9250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5644,7 +5646,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5685,7 +5687,7 @@
                   <a14:compatExt spid="_x0000_s9251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5731,7 +5733,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5772,7 +5774,7 @@
                   <a14:compatExt spid="_x0000_s9252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5818,7 +5820,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5859,7 +5861,7 @@
                   <a14:compatExt spid="_x0000_s9253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5888,7 +5890,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -5928,7 +5930,7 @@
                   <a14:compatExt spid="_x0000_s9254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5974,7 +5976,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6015,7 +6017,7 @@
                   <a14:compatExt spid="_x0000_s9255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6061,7 +6063,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6102,7 +6104,7 @@
                   <a14:compatExt spid="_x0000_s9256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6148,7 +6150,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6189,7 +6191,7 @@
                   <a14:compatExt spid="_x0000_s9257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6235,7 +6237,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6276,7 +6278,7 @@
                   <a14:compatExt spid="_x0000_s9258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6322,7 +6324,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6363,7 +6365,7 @@
                   <a14:compatExt spid="_x0000_s9259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6409,7 +6411,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6450,7 +6452,7 @@
                   <a14:compatExt spid="_x0000_s9260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6479,7 +6481,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6519,7 +6521,7 @@
                   <a14:compatExt spid="_x0000_s9261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6586,7 +6588,7 @@
                   <a14:compatExt spid="_x0000_s9262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6622,7 +6624,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6663,7 +6665,7 @@
                   <a14:compatExt spid="_x0000_s9263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6709,7 +6711,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6750,7 +6752,7 @@
                   <a14:compatExt spid="_x0000_s9264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6796,7 +6798,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6837,7 +6839,7 @@
                   <a14:compatExt spid="_x0000_s9265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6883,7 +6885,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -6924,7 +6926,7 @@
                   <a14:compatExt spid="_x0000_s9266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6970,7 +6972,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7011,7 +7013,7 @@
                   <a14:compatExt spid="_x0000_s9267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7057,7 +7059,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7098,7 +7100,7 @@
                   <a14:compatExt spid="_x0000_s9268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7144,7 +7146,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7185,7 +7187,7 @@
                   <a14:compatExt spid="_x0000_s9269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7252,7 +7254,7 @@
                   <a14:compatExt spid="_x0000_s9270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7298,7 +7300,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7339,7 +7341,7 @@
                   <a14:compatExt spid="_x0000_s9271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7385,7 +7387,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7426,7 +7428,7 @@
                   <a14:compatExt spid="_x0000_s9272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7455,7 +7457,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7495,7 +7497,7 @@
                   <a14:compatExt spid="_x0000_s9273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7524,7 +7526,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7564,7 +7566,7 @@
                   <a14:compatExt spid="_x0000_s9274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7593,7 +7595,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7633,7 +7635,7 @@
                   <a14:compatExt spid="_x0000_s9275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7662,7 +7664,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7702,7 +7704,7 @@
                   <a14:compatExt spid="_x0000_s9276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7731,7 +7733,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7771,7 +7773,7 @@
                   <a14:compatExt spid="_x0000_s9277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7800,7 +7802,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7840,7 +7842,7 @@
                   <a14:compatExt spid="_x0000_s9278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7869,7 +7871,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7909,7 +7911,7 @@
                   <a14:compatExt spid="_x0000_s9279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7938,7 +7940,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7978,7 +7980,7 @@
                   <a14:compatExt spid="_x0000_s9280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8007,7 +8009,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8047,7 +8049,7 @@
                   <a14:compatExt spid="_x0000_s9281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8076,7 +8078,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8116,7 +8118,7 @@
                   <a14:compatExt spid="_x0000_s9282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8145,7 +8147,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8185,7 +8187,7 @@
                   <a14:compatExt spid="_x0000_s9283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8214,7 +8216,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8254,7 +8256,7 @@
                   <a14:compatExt spid="_x0000_s9284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8283,7 +8285,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8323,7 +8325,7 @@
                   <a14:compatExt spid="_x0000_s9285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8352,7 +8354,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8392,7 +8394,7 @@
                   <a14:compatExt spid="_x0000_s9286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8421,7 +8423,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8461,7 +8463,7 @@
                   <a14:compatExt spid="_x0000_s9287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8490,7 +8492,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8530,7 +8532,7 @@
                   <a14:compatExt spid="_x0000_s9288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8559,7 +8561,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8599,7 +8601,7 @@
                   <a14:compatExt spid="_x0000_s9289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8628,7 +8630,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8668,7 +8670,7 @@
                   <a14:compatExt spid="_x0000_s9290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8697,7 +8699,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8737,7 +8739,7 @@
                   <a14:compatExt spid="_x0000_s9291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8766,7 +8768,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8806,7 +8808,7 @@
                   <a14:compatExt spid="_x0000_s9292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8835,7 +8837,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8875,7 +8877,7 @@
                   <a14:compatExt spid="_x0000_s9293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8904,7 +8906,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8944,7 +8946,7 @@
                   <a14:compatExt spid="_x0000_s9294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8973,7 +8975,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9013,7 +9015,7 @@
                   <a14:compatExt spid="_x0000_s9295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9042,7 +9044,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9082,7 +9084,7 @@
                   <a14:compatExt spid="_x0000_s9296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9111,7 +9113,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9151,7 +9153,7 @@
                   <a14:compatExt spid="_x0000_s9297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9180,7 +9182,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9220,7 +9222,7 @@
                   <a14:compatExt spid="_x0000_s9298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9249,7 +9251,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9289,7 +9291,7 @@
                   <a14:compatExt spid="_x0000_s9299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9318,7 +9320,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9358,7 +9360,7 @@
                   <a14:compatExt spid="_x0000_s9300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9387,7 +9389,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9427,7 +9429,7 @@
                   <a14:compatExt spid="_x0000_s9301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9456,7 +9458,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9496,7 +9498,7 @@
                   <a14:compatExt spid="_x0000_s9302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9525,7 +9527,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9565,7 +9567,7 @@
                   <a14:compatExt spid="_x0000_s9303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9594,7 +9596,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9634,7 +9636,7 @@
                   <a14:compatExt spid="_x0000_s9304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9663,7 +9665,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9703,7 +9705,7 @@
                   <a14:compatExt spid="_x0000_s9305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9732,7 +9734,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9772,7 +9774,7 @@
                   <a14:compatExt spid="_x0000_s9306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9801,7 +9803,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9841,7 +9843,7 @@
                   <a14:compatExt spid="_x0000_s9307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9870,7 +9872,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9910,7 +9912,7 @@
                   <a14:compatExt spid="_x0000_s9308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9939,7 +9941,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9979,7 +9981,7 @@
                   <a14:compatExt spid="_x0000_s9309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10008,7 +10010,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10048,7 +10050,7 @@
                   <a14:compatExt spid="_x0000_s9310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10077,7 +10079,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10117,7 +10119,7 @@
                   <a14:compatExt spid="_x0000_s9311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10146,7 +10148,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10186,7 +10188,7 @@
                   <a14:compatExt spid="_x0000_s9312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10215,7 +10217,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10255,7 +10257,7 @@
                   <a14:compatExt spid="_x0000_s9313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10284,7 +10286,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10324,7 +10326,7 @@
                   <a14:compatExt spid="_x0000_s9314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10353,7 +10355,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10393,7 +10395,7 @@
                   <a14:compatExt spid="_x0000_s9315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000063240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10422,7 +10424,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10462,7 +10464,7 @@
                   <a14:compatExt spid="_x0000_s9316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000064240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10491,7 +10493,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10531,7 +10533,7 @@
                   <a14:compatExt spid="_x0000_s9317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000065240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10560,7 +10562,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10600,7 +10602,7 @@
                   <a14:compatExt spid="_x0000_s9318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000066240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10629,7 +10631,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10669,7 +10671,7 @@
                   <a14:compatExt spid="_x0000_s9319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000067240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10698,7 +10700,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10738,7 +10740,7 @@
                   <a14:compatExt spid="_x0000_s9320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000068240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10767,7 +10769,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10807,7 +10809,7 @@
                   <a14:compatExt spid="_x0000_s9321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000069240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10836,7 +10838,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10876,7 +10878,7 @@
                   <a14:compatExt spid="_x0000_s9322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10905,7 +10907,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -10945,7 +10947,7 @@
                   <a14:compatExt spid="_x0000_s9323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10974,7 +10976,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11014,7 +11016,7 @@
                   <a14:compatExt spid="_x0000_s9324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11043,7 +11045,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11083,7 +11085,7 @@
                   <a14:compatExt spid="_x0000_s9325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11112,7 +11114,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11152,7 +11154,7 @@
                   <a14:compatExt spid="_x0000_s9326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11181,7 +11183,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11221,7 +11223,7 @@
                   <a14:compatExt spid="_x0000_s9327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11250,7 +11252,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11290,7 +11292,7 @@
                   <a14:compatExt spid="_x0000_s9328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000070240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11319,7 +11321,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11359,7 +11361,7 @@
                   <a14:compatExt spid="_x0000_s9329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000071240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11388,7 +11390,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11428,7 +11430,7 @@
                   <a14:compatExt spid="_x0000_s9330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11457,7 +11459,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11497,7 +11499,7 @@
                   <a14:compatExt spid="_x0000_s9331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000073240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11526,7 +11528,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11566,7 +11568,7 @@
                   <a14:compatExt spid="_x0000_s9332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000074240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11595,7 +11597,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11635,7 +11637,7 @@
                   <a14:compatExt spid="_x0000_s9333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000075240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11664,7 +11666,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11704,7 +11706,7 @@
                   <a14:compatExt spid="_x0000_s9334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000076240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11733,7 +11735,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11773,7 +11775,7 @@
                   <a14:compatExt spid="_x0000_s9335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11802,7 +11804,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11842,7 +11844,7 @@
                   <a14:compatExt spid="_x0000_s9336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000078240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11871,7 +11873,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11911,7 +11913,7 @@
                   <a14:compatExt spid="_x0000_s9337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000079240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11940,7 +11942,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -11980,7 +11982,7 @@
                   <a14:compatExt spid="_x0000_s9338"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12009,7 +12011,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12049,7 +12051,7 @@
                   <a14:compatExt spid="_x0000_s9339"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12078,7 +12080,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12118,7 +12120,7 @@
                   <a14:compatExt spid="_x0000_s9340"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12147,7 +12149,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12187,7 +12189,7 @@
                   <a14:compatExt spid="_x0000_s9341"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12216,7 +12218,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12256,7 +12258,7 @@
                   <a14:compatExt spid="_x0000_s9342"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12285,7 +12287,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12325,7 +12327,7 @@
                   <a14:compatExt spid="_x0000_s9343"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12354,7 +12356,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12394,7 +12396,7 @@
                   <a14:compatExt spid="_x0000_s9344"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12423,7 +12425,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12463,7 +12465,7 @@
                   <a14:compatExt spid="_x0000_s9345"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12492,7 +12494,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12532,7 +12534,7 @@
                   <a14:compatExt spid="_x0000_s9346"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12561,7 +12563,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12601,7 +12603,7 @@
                   <a14:compatExt spid="_x0000_s9347"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000083240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12630,7 +12632,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12670,7 +12672,7 @@
                   <a14:compatExt spid="_x0000_s9348"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000084240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12699,7 +12701,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12739,7 +12741,7 @@
                   <a14:compatExt spid="_x0000_s9349"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12768,7 +12770,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12808,7 +12810,7 @@
                   <a14:compatExt spid="_x0000_s9350"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12837,7 +12839,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12877,7 +12879,7 @@
                   <a14:compatExt spid="_x0000_s9351"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000087240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12906,7 +12908,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -12946,7 +12948,7 @@
                   <a14:compatExt spid="_x0000_s9352"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12975,7 +12977,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13015,7 +13017,7 @@
                   <a14:compatExt spid="_x0000_s9353"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000089240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13044,7 +13046,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13084,7 +13086,7 @@
                   <a14:compatExt spid="_x0000_s9354"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13113,7 +13115,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13153,7 +13155,7 @@
                   <a14:compatExt spid="_x0000_s9355"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13182,7 +13184,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13222,7 +13224,7 @@
                   <a14:compatExt spid="_x0000_s9356"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13251,7 +13253,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13291,7 +13293,7 @@
                   <a14:compatExt spid="_x0000_s9357"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13320,7 +13322,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13360,7 +13362,7 @@
                   <a14:compatExt spid="_x0000_s9358"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13389,7 +13391,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13429,7 +13431,7 @@
                   <a14:compatExt spid="_x0000_s9359"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13458,7 +13460,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13498,7 +13500,7 @@
                   <a14:compatExt spid="_x0000_s9360"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000090240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13527,7 +13529,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13567,7 +13569,7 @@
                   <a14:compatExt spid="_x0000_s9361"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000091240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13596,7 +13598,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13636,7 +13638,7 @@
                   <a14:compatExt spid="_x0000_s9362"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13665,7 +13667,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13705,7 +13707,7 @@
                   <a14:compatExt spid="_x0000_s9363"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000093240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13734,7 +13736,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13774,7 +13776,7 @@
                   <a14:compatExt spid="_x0000_s9364"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000094240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13803,7 +13805,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13843,7 +13845,7 @@
                   <a14:compatExt spid="_x0000_s9365"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000095240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13872,7 +13874,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13912,7 +13914,7 @@
                   <a14:compatExt spid="_x0000_s9366"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000096240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13941,7 +13943,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -13981,7 +13983,7 @@
                   <a14:compatExt spid="_x0000_s9367"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000097240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14010,7 +14012,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14050,7 +14052,7 @@
                   <a14:compatExt spid="_x0000_s9368"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000098240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14079,7 +14081,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14119,7 +14121,7 @@
                   <a14:compatExt spid="_x0000_s9369"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000099240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14148,7 +14150,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14188,7 +14190,7 @@
                   <a14:compatExt spid="_x0000_s9370"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14217,7 +14219,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14257,7 +14259,7 @@
                   <a14:compatExt spid="_x0000_s9371"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14286,7 +14288,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14326,7 +14328,7 @@
                   <a14:compatExt spid="_x0000_s9372"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009C240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14355,7 +14357,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14395,7 +14397,7 @@
                   <a14:compatExt spid="_x0000_s9373"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14424,7 +14426,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14464,7 +14466,7 @@
                   <a14:compatExt spid="_x0000_s9374"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14493,7 +14495,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14533,7 +14535,7 @@
                   <a14:compatExt spid="_x0000_s9375"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00009F240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14562,7 +14564,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14602,7 +14604,7 @@
                   <a14:compatExt spid="_x0000_s9376"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A0240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14631,7 +14633,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14671,7 +14673,7 @@
                   <a14:compatExt spid="_x0000_s9377"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A1240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14700,7 +14702,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14740,7 +14742,7 @@
                   <a14:compatExt spid="_x0000_s9378"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A2240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14769,7 +14771,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14809,7 +14811,7 @@
                   <a14:compatExt spid="_x0000_s9379"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A3240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14838,7 +14840,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14878,7 +14880,7 @@
                   <a14:compatExt spid="_x0000_s9380"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A4240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14907,7 +14909,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -14947,7 +14949,7 @@
                   <a14:compatExt spid="_x0000_s9381"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A5240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14976,7 +14978,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15016,7 +15018,7 @@
                   <a14:compatExt spid="_x0000_s9382"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A6240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15045,7 +15047,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15085,7 +15087,7 @@
                   <a14:compatExt spid="_x0000_s9383"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A7240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15114,7 +15116,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15154,7 +15156,7 @@
                   <a14:compatExt spid="_x0000_s9384"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15183,7 +15185,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15223,7 +15225,7 @@
                   <a14:compatExt spid="_x0000_s9385"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A9240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15252,7 +15254,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15292,7 +15294,7 @@
                   <a14:compatExt spid="_x0000_s9386"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AA240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15321,7 +15323,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15361,7 +15363,7 @@
                   <a14:compatExt spid="_x0000_s9387"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AB240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15390,7 +15392,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15430,7 +15432,7 @@
                   <a14:compatExt spid="_x0000_s9388"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AC240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15459,7 +15461,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15499,7 +15501,7 @@
                   <a14:compatExt spid="_x0000_s9389"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AD240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15528,7 +15530,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15568,7 +15570,7 @@
                   <a14:compatExt spid="_x0000_s9390"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AE240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15597,7 +15599,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15637,7 +15639,7 @@
                   <a14:compatExt spid="_x0000_s9391"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000AF240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15666,7 +15668,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15706,7 +15708,7 @@
                   <a14:compatExt spid="_x0000_s9392"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B0240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15735,7 +15737,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15775,7 +15777,7 @@
                   <a14:compatExt spid="_x0000_s9393"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B1240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15804,7 +15806,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15844,7 +15846,7 @@
                   <a14:compatExt spid="_x0000_s9394"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B2240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15873,7 +15875,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15913,7 +15915,7 @@
                   <a14:compatExt spid="_x0000_s9395"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B3240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -15942,7 +15944,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -15982,7 +15984,7 @@
                   <a14:compatExt spid="_x0000_s9396"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B4240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16011,7 +16013,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16051,7 +16053,7 @@
                   <a14:compatExt spid="_x0000_s9397"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B5240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16080,7 +16082,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16120,7 +16122,7 @@
                   <a14:compatExt spid="_x0000_s9398"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B6240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16149,7 +16151,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16189,7 +16191,7 @@
                   <a14:compatExt spid="_x0000_s9399"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B7240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16218,7 +16220,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16258,7 +16260,7 @@
                   <a14:compatExt spid="_x0000_s9400"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000B8240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16287,7 +16289,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-AS" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -16327,7 +16329,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16376,7 +16378,7 @@
                   <a14:compatExt spid="_x0000_s3093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000150C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000150C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16438,7 +16440,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16487,7 +16489,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16549,7 +16551,7 @@
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16938,19 +16940,19 @@
   <sheetData>
     <row r="1" spans="1:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
       <c r="AA1" s="1">
         <v>1</v>
       </c>
@@ -17005,43 +17007,43 @@
     </row>
     <row r="5" spans="1:28" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
       <c r="Q5" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
       <c r="Q6" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="21"/>
@@ -17054,13 +17056,13 @@
       <c r="J7" s="51"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
-      <c r="Q7" s="103" t="s">
+      <c r="Q7" s="104" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -17071,35 +17073,35 @@
       <c r="J8" s="52"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
-      <c r="Q8" s="103"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="103"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
       <c r="F10" s="53"/>
@@ -17109,12 +17111,12 @@
       <c r="J10" s="53"/>
       <c r="K10" s="14"/>
       <c r="L10" s="12"/>
-      <c r="Q10" s="103"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" spans="1:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="77" t="s">
         <v>6</v>
       </c>
@@ -17134,12 +17136,12 @@
       <c r="L11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="103"/>
+      <c r="Q11" s="104"/>
     </row>
     <row r="12" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="74"/>
       <c r="E12" s="8"/>
       <c r="F12" s="54"/>
@@ -17149,12 +17151,12 @@
       <c r="J12" s="54"/>
       <c r="K12" s="8"/>
       <c r="L12" s="75"/>
-      <c r="Q12" s="103"/>
+      <c r="Q12" s="104"/>
     </row>
     <row r="13" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
       <c r="F13" s="53"/>
@@ -17164,12 +17166,12 @@
       <c r="J13" s="53"/>
       <c r="K13" s="14"/>
       <c r="L13" s="12"/>
-      <c r="Q13" s="103"/>
+      <c r="Q13" s="104"/>
     </row>
     <row r="14" spans="1:28" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="84"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="77" t="s">
         <v>9</v>
       </c>
@@ -17189,12 +17191,12 @@
       <c r="L14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="103"/>
+      <c r="Q14" s="104"/>
     </row>
     <row r="15" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="74"/>
       <c r="E15" s="8"/>
       <c r="F15" s="54"/>
@@ -17204,13 +17206,13 @@
       <c r="J15" s="54"/>
       <c r="K15" s="8"/>
       <c r="L15" s="75"/>
-      <c r="Q15" s="103"/>
+      <c r="Q15" s="104"/>
     </row>
     <row r="16" spans="1:28" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="104" t="s">
+      <c r="B16" s="99"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="105" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="14"/>
@@ -17221,13 +17223,13 @@
       <c r="J16" s="53"/>
       <c r="K16" s="14"/>
       <c r="L16" s="12"/>
-      <c r="Q16" s="103"/>
+      <c r="Q16" s="104"/>
     </row>
     <row r="17" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="104"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="105"/>
       <c r="E17" s="14"/>
       <c r="F17" s="53"/>
       <c r="G17" s="14"/>
@@ -17236,11 +17238,11 @@
       <c r="J17" s="53"/>
       <c r="K17" s="14"/>
       <c r="L17" s="12"/>
-      <c r="Q17" s="103"/>
+      <c r="Q17" s="104"/>
     </row>
     <row r="18" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="98"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="71"/>
       <c r="D18" s="16" t="str">
         <f>IF(AA1=2, "Level 1", IF(AB1=TRUE, IF(A26-1=0, "Lowest Level","Lowest Level -"&amp;(A26-1)), "Level 1"))</f>
@@ -17262,11 +17264,11 @@
       <c r="L18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="103"/>
+      <c r="Q18" s="104"/>
     </row>
     <row r="19" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="98"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="71"/>
       <c r="D19" s="74"/>
       <c r="E19" s="8"/>
@@ -17277,11 +17279,11 @@
       <c r="J19" s="54"/>
       <c r="K19" s="8"/>
       <c r="L19" s="75"/>
-      <c r="Q19" s="103"/>
+      <c r="Q19" s="104"/>
     </row>
     <row r="20" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="98"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="71"/>
       <c r="D20" s="11"/>
       <c r="E20" s="14"/>
@@ -17296,7 +17298,7 @@
     </row>
     <row r="21" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="98"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="71"/>
       <c r="D21" s="17" t="str">
         <f>IF(AA1=2, "Level 2", IF(AB1=TRUE, IF(A26-2=0, "Lowest Level","Lowest Level -"&amp;(A26-2)), "Level 2"))</f>
@@ -17324,7 +17326,7 @@
     </row>
     <row r="22" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="98"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="71"/>
       <c r="D22" s="74"/>
       <c r="E22" s="8"/>
@@ -17335,13 +17337,13 @@
       <c r="J22" s="54"/>
       <c r="K22" s="8"/>
       <c r="L22" s="75"/>
-      <c r="Q22" s="103" t="s">
+      <c r="Q22" s="104" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="98"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="71"/>
       <c r="D23" s="11"/>
       <c r="E23" s="14"/>
@@ -17352,11 +17354,11 @@
       <c r="J23" s="53"/>
       <c r="K23" s="14"/>
       <c r="L23" s="12"/>
-      <c r="Q23" s="103"/>
+      <c r="Q23" s="104"/>
     </row>
     <row r="24" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="98"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="71"/>
       <c r="D24" s="18" t="str">
         <f>IF(AA1=2, "Level 3", IF(AB1=TRUE, IF(A26-3=0, "Lowest Level","Lowest Level -"&amp;(A26-3)), "Level 3"))</f>
@@ -17378,11 +17380,11 @@
       <c r="L24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="103"/>
+      <c r="Q24" s="104"/>
     </row>
     <row r="25" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="98"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="71"/>
       <c r="D25" s="74"/>
       <c r="E25" s="8"/>
@@ -17393,13 +17395,13 @@
       <c r="J25" s="54"/>
       <c r="K25" s="8"/>
       <c r="L25" s="75"/>
-      <c r="Q25" s="103"/>
+      <c r="Q25" s="104"/>
     </row>
     <row r="26" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="71"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -17410,11 +17412,11 @@
       <c r="J26" s="52"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12"/>
-      <c r="Q26" s="103"/>
+      <c r="Q26" s="104"/>
     </row>
     <row r="27" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="100"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="76"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -17425,11 +17427,11 @@
       <c r="J27" s="56"/>
       <c r="K27" s="19"/>
       <c r="L27" s="20"/>
-      <c r="Q27" s="103"/>
+      <c r="Q27" s="104"/>
     </row>
     <row r="28" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="11"/>
@@ -17442,11 +17444,11 @@
       <c r="J28" s="52"/>
       <c r="K28" s="11"/>
       <c r="L28" s="12"/>
-      <c r="Q28" s="103"/>
+      <c r="Q28" s="104"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="98"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -17457,26 +17459,26 @@
       <c r="J29" s="52"/>
       <c r="K29" s="11"/>
       <c r="L29" s="12"/>
-      <c r="Q29" s="103"/>
+      <c r="Q29" s="104"/>
     </row>
     <row r="30" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="98"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
       <c r="H30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="13" t="s">
         <v>3</v>
       </c>
@@ -17484,8 +17486,8 @@
     </row>
     <row r="31" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="11"/>
       <c r="E31" s="14"/>
       <c r="F31" s="53"/>
@@ -17499,8 +17501,8 @@
     </row>
     <row r="32" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="77" t="s">
         <v>6</v>
       </c>
@@ -17526,8 +17528,8 @@
     </row>
     <row r="33" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="74"/>
       <c r="E33" s="8"/>
       <c r="F33" s="54"/>
@@ -17537,14 +17539,14 @@
       <c r="J33" s="54"/>
       <c r="K33" s="8"/>
       <c r="L33" s="75"/>
-      <c r="Q33" s="103" t="s">
+      <c r="Q33" s="104" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="84"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="11"/>
       <c r="E34" s="14"/>
       <c r="F34" s="53"/>
@@ -17554,12 +17556,12 @@
       <c r="J34" s="53"/>
       <c r="K34" s="14"/>
       <c r="L34" s="12"/>
-      <c r="Q34" s="103"/>
+      <c r="Q34" s="104"/>
     </row>
     <row r="35" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="77" t="s">
         <v>9</v>
       </c>
@@ -17579,12 +17581,12 @@
       <c r="L35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q35" s="103"/>
+      <c r="Q35" s="104"/>
     </row>
     <row r="36" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="85"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="74"/>
       <c r="E36" s="8"/>
       <c r="F36" s="54"/>
@@ -17594,13 +17596,13 @@
       <c r="J36" s="54"/>
       <c r="K36" s="8"/>
       <c r="L36" s="75"/>
-      <c r="Q36" s="103"/>
+      <c r="Q36" s="104"/>
     </row>
     <row r="37" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="104" t="s">
+      <c r="B37" s="99"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="105" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="14"/>
@@ -17611,13 +17613,13 @@
       <c r="J37" s="53"/>
       <c r="K37" s="14"/>
       <c r="L37" s="12"/>
-      <c r="Q37" s="103"/>
+      <c r="Q37" s="104"/>
     </row>
     <row r="38" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="104"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="105"/>
       <c r="E38" s="14"/>
       <c r="F38" s="53"/>
       <c r="G38" s="14"/>
@@ -17626,11 +17628,11 @@
       <c r="J38" s="53"/>
       <c r="K38" s="14"/>
       <c r="L38" s="12"/>
-      <c r="Q38" s="103"/>
+      <c r="Q38" s="104"/>
     </row>
     <row r="39" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="B39" s="98"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="71"/>
       <c r="D39" s="16" t="str">
         <f>IF(AA1=2, "Level 1", IF(AB1=TRUE, IF(A47-1=0, "Lowest Level","Lowest Level -"&amp;(A47-1)), "Level 1"))</f>
@@ -17652,11 +17654,11 @@
       <c r="L39" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q39" s="103"/>
+      <c r="Q39" s="104"/>
     </row>
     <row r="40" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="98"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="71"/>
       <c r="D40" s="74"/>
       <c r="E40" s="8"/>
@@ -17671,7 +17673,7 @@
     </row>
     <row r="41" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="98"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="71"/>
       <c r="D41" s="11"/>
       <c r="E41" s="14"/>
@@ -17685,7 +17687,7 @@
     </row>
     <row r="42" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="98"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="71"/>
       <c r="D42" s="17" t="str">
         <f>IF(AA1=2, "Level 2", IF(AB1=TRUE, IF(A47-2=0, "Lowest Level","Lowest Level -"&amp;(A47-2)), "Level 2"))</f>
@@ -17710,7 +17712,7 @@
     </row>
     <row r="43" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="98"/>
+      <c r="B43" s="99"/>
       <c r="C43" s="71"/>
       <c r="D43" s="74"/>
       <c r="E43" s="8"/>
@@ -17724,7 +17726,7 @@
     </row>
     <row r="44" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="98"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="71"/>
       <c r="D44" s="11"/>
       <c r="E44" s="14"/>
@@ -17738,7 +17740,7 @@
     </row>
     <row r="45" spans="1:17" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="98"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="71"/>
       <c r="D45" s="18" t="str">
         <f>IF(AA1=2, "Level 3", IF(AB1=TRUE, IF(A47-3=0, "Lowest Level","Lowest Level -"&amp;(A47-3)), "Level 3"))</f>
@@ -17763,7 +17765,7 @@
     </row>
     <row r="46" spans="1:17" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="98"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="71"/>
       <c r="D46" s="74"/>
       <c r="E46" s="8"/>
@@ -17779,7 +17781,7 @@
       <c r="A47" s="3">
         <v>3</v>
       </c>
-      <c r="B47" s="98"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="71"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -17793,7 +17795,7 @@
     </row>
     <row r="48" spans="1:17" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="100"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="76"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -17849,37 +17851,37 @@
     </row>
     <row r="52" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="94"/>
     </row>
     <row r="53" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="95"/>
-      <c r="L53" s="96"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="97"/>
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="97" t="s">
+      <c r="B54" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C54" s="11"/>
@@ -17895,30 +17897,30 @@
     </row>
     <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="98"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="80" t="s">
+      <c r="E55" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="80" t="s">
+      <c r="I55" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="81"/>
-      <c r="K55" s="82"/>
+      <c r="J55" s="82"/>
+      <c r="K55" s="83"/>
       <c r="L55" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="83"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="84"/>
       <c r="D56" s="11"/>
       <c r="E56" s="14"/>
       <c r="F56" s="53"/>
@@ -17931,8 +17933,8 @@
     </row>
     <row r="57" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="84"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="77" t="s">
         <v>13</v>
       </c>
@@ -17955,8 +17957,8 @@
     </row>
     <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="85"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="74"/>
       <c r="E58" s="8"/>
       <c r="F58" s="54"/>
@@ -17969,8 +17971,8 @@
     </row>
     <row r="59" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="84"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="11"/>
       <c r="E59" s="14"/>
       <c r="F59" s="53"/>
@@ -17983,8 +17985,8 @@
     </row>
     <row r="60" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="84"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="77" t="s">
         <v>14</v>
       </c>
@@ -18007,8 +18009,8 @@
     </row>
     <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="85"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="86"/>
       <c r="D61" s="74"/>
       <c r="E61" s="8"/>
       <c r="F61" s="54"/>
@@ -18021,8 +18023,8 @@
     </row>
     <row r="62" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="84"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="11"/>
       <c r="E62" s="14"/>
       <c r="F62" s="53"/>
@@ -18035,8 +18037,8 @@
     </row>
     <row r="63" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="84"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="77" t="s">
         <v>15</v>
       </c>
@@ -18059,8 +18061,8 @@
     </row>
     <row r="64" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="85"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="86"/>
       <c r="D64" s="74"/>
       <c r="E64" s="8"/>
       <c r="F64" s="54"/>
@@ -18073,8 +18075,8 @@
     </row>
     <row r="65" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="84"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="11"/>
       <c r="E65" s="14"/>
       <c r="F65" s="53"/>
@@ -18087,8 +18089,8 @@
     </row>
     <row r="66" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="84"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="77" t="s">
         <v>16</v>
       </c>
@@ -18111,8 +18113,8 @@
     </row>
     <row r="67" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="85"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="86"/>
       <c r="D67" s="74"/>
       <c r="E67" s="8"/>
       <c r="F67" s="54"/>
@@ -18125,8 +18127,8 @@
     </row>
     <row r="68" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="84"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="85"/>
       <c r="D68" s="11"/>
       <c r="E68" s="14"/>
       <c r="F68" s="53"/>
@@ -18139,8 +18141,8 @@
     </row>
     <row r="69" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="84"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="85"/>
       <c r="D69" s="77" t="s">
         <v>17</v>
       </c>
@@ -18163,8 +18165,8 @@
     </row>
     <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="85"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="86"/>
       <c r="D70" s="74"/>
       <c r="E70" s="8"/>
       <c r="F70" s="54"/>
@@ -18177,8 +18179,8 @@
     </row>
     <row r="71" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="84"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="85"/>
       <c r="D71" s="11"/>
       <c r="E71" s="14"/>
       <c r="F71" s="53"/>
@@ -18191,8 +18193,8 @@
     </row>
     <row r="72" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="84"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="85"/>
       <c r="D72" s="77" t="s">
         <v>18</v>
       </c>
@@ -18207,7 +18209,7 @@
     </row>
     <row r="73" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="98"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="71"/>
       <c r="D73" s="77"/>
       <c r="E73" s="14"/>
@@ -18221,7 +18223,7 @@
     </row>
     <row r="74" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="98"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="71"/>
       <c r="D74" s="43" t="s">
         <v>34</v>
@@ -18245,7 +18247,7 @@
     </row>
     <row r="75" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="98"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="71"/>
       <c r="D75" s="42"/>
       <c r="E75" s="8"/>
@@ -18259,7 +18261,7 @@
     </row>
     <row r="76" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="98"/>
+      <c r="B76" s="99"/>
       <c r="C76" s="71"/>
       <c r="D76" s="77"/>
       <c r="E76" s="14"/>
@@ -18273,7 +18275,7 @@
     </row>
     <row r="77" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="98"/>
+      <c r="B77" s="99"/>
       <c r="C77" s="71"/>
       <c r="D77" s="43" t="s">
         <v>35</v>
@@ -18297,7 +18299,7 @@
     </row>
     <row r="78" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="98"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="71"/>
       <c r="D78" s="42"/>
       <c r="E78" s="8"/>
@@ -18311,7 +18313,7 @@
     </row>
     <row r="79" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="98"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="71"/>
       <c r="D79" s="77"/>
       <c r="E79" s="14"/>
@@ -18325,7 +18327,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="98"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="71"/>
       <c r="D80" s="43" t="s">
         <v>51</v>
@@ -18349,7 +18351,7 @@
     </row>
     <row r="81" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="98"/>
+      <c r="B81" s="99"/>
       <c r="C81" s="71"/>
       <c r="D81" s="42"/>
       <c r="E81" s="8"/>
@@ -18363,7 +18365,7 @@
     </row>
     <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="98"/>
+      <c r="B82" s="99"/>
       <c r="C82" s="71"/>
       <c r="D82" s="77"/>
       <c r="E82" s="14"/>
@@ -18377,7 +18379,7 @@
     </row>
     <row r="83" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="98"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="71"/>
       <c r="D83" s="43" t="s">
         <v>37</v>
@@ -18401,7 +18403,7 @@
     </row>
     <row r="84" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="98"/>
+      <c r="B84" s="99"/>
       <c r="C84" s="71"/>
       <c r="D84" s="42"/>
       <c r="E84" s="8"/>
@@ -18415,7 +18417,7 @@
     </row>
     <row r="85" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
-      <c r="B85" s="98"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="71"/>
       <c r="D85" s="77"/>
       <c r="E85" s="14"/>
@@ -18429,7 +18431,7 @@
     </row>
     <row r="86" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="98"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="71"/>
       <c r="D86" s="43" t="s">
         <v>38</v>
@@ -18453,7 +18455,7 @@
     </row>
     <row r="87" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
-      <c r="B87" s="98"/>
+      <c r="B87" s="99"/>
       <c r="C87" s="71"/>
       <c r="D87" s="42"/>
       <c r="E87" s="8"/>
@@ -18467,7 +18469,7 @@
     </row>
     <row r="88" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
-      <c r="B88" s="98"/>
+      <c r="B88" s="99"/>
       <c r="C88" s="71"/>
       <c r="D88" s="77"/>
       <c r="E88" s="14"/>
@@ -18481,7 +18483,7 @@
     </row>
     <row r="89" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="98"/>
+      <c r="B89" s="99"/>
       <c r="C89" s="71"/>
       <c r="D89" s="43" t="s">
         <v>39</v>
@@ -18505,7 +18507,7 @@
     </row>
     <row r="90" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
-      <c r="B90" s="98"/>
+      <c r="B90" s="99"/>
       <c r="C90" s="71"/>
       <c r="D90" s="42"/>
       <c r="E90" s="8"/>
@@ -18519,7 +18521,7 @@
     </row>
     <row r="91" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
-      <c r="B91" s="98"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="71"/>
       <c r="D91" s="77"/>
       <c r="E91" s="14"/>
@@ -18533,13 +18535,13 @@
     </row>
     <row r="92" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="B92" s="98"/>
+      <c r="B92" s="99"/>
       <c r="C92" s="71"/>
       <c r="D92" s="43" t="s">
         <v>65</v>
       </c>
       <c r="E92" s="14"/>
-      <c r="F92" s="118">
+      <c r="F92" s="78">
         <v>10000</v>
       </c>
       <c r="G92" s="14"/>
@@ -18557,7 +18559,7 @@
     </row>
     <row r="93" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
-      <c r="B93" s="98"/>
+      <c r="B93" s="99"/>
       <c r="C93" s="71"/>
       <c r="D93" s="42"/>
       <c r="E93" s="8"/>
@@ -18571,7 +18573,7 @@
     </row>
     <row r="94" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
-      <c r="B94" s="98"/>
+      <c r="B94" s="99"/>
       <c r="C94" s="71"/>
       <c r="D94" s="77"/>
       <c r="E94" s="14"/>
@@ -18585,13 +18587,13 @@
     </row>
     <row r="95" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="B95" s="98"/>
+      <c r="B95" s="99"/>
       <c r="C95" s="71"/>
       <c r="D95" s="43" t="s">
         <v>66</v>
       </c>
       <c r="E95" s="14"/>
-      <c r="F95" s="118">
+      <c r="F95" s="78">
         <v>10000</v>
       </c>
       <c r="G95" s="14"/>
@@ -18609,7 +18611,7 @@
     </row>
     <row r="96" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
-      <c r="B96" s="98"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="71"/>
       <c r="D96" s="42"/>
       <c r="E96" s="8"/>
@@ -18623,7 +18625,7 @@
     </row>
     <row r="97" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
-      <c r="B97" s="98"/>
+      <c r="B97" s="99"/>
       <c r="C97" s="71"/>
       <c r="D97" s="77"/>
       <c r="E97" s="14"/>
@@ -18637,7 +18639,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="B98" s="98"/>
+      <c r="B98" s="99"/>
       <c r="C98" s="71"/>
       <c r="D98" s="43" t="s">
         <v>52</v>
@@ -18661,7 +18663,7 @@
     </row>
     <row r="99" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="B99" s="98"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="71"/>
       <c r="D99" s="42"/>
       <c r="E99" s="8"/>
@@ -18675,7 +18677,7 @@
     </row>
     <row r="100" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
-      <c r="B100" s="98"/>
+      <c r="B100" s="99"/>
       <c r="C100" s="71"/>
       <c r="D100" s="77"/>
       <c r="E100" s="14"/>
@@ -18689,7 +18691,7 @@
     </row>
     <row r="101" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="B101" s="98"/>
+      <c r="B101" s="99"/>
       <c r="C101" s="71"/>
       <c r="D101" s="43" t="s">
         <v>40</v>
@@ -18713,7 +18715,7 @@
     </row>
     <row r="102" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
-      <c r="B102" s="98"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="71"/>
       <c r="D102" s="42"/>
       <c r="E102" s="8"/>
@@ -18727,7 +18729,7 @@
     </row>
     <row r="103" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
-      <c r="B103" s="98"/>
+      <c r="B103" s="99"/>
       <c r="C103" s="71"/>
       <c r="D103" s="77"/>
       <c r="E103" s="14"/>
@@ -18741,7 +18743,7 @@
     </row>
     <row r="104" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="B104" s="98"/>
+      <c r="B104" s="99"/>
       <c r="C104" s="71"/>
       <c r="D104" s="43" t="s">
         <v>36</v>
@@ -18765,7 +18767,7 @@
     </row>
     <row r="105" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
-      <c r="B105" s="98"/>
+      <c r="B105" s="99"/>
       <c r="C105" s="71"/>
       <c r="D105" s="42"/>
       <c r="E105" s="8"/>
@@ -18779,7 +18781,7 @@
     </row>
     <row r="106" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
-      <c r="B106" s="98"/>
+      <c r="B106" s="99"/>
       <c r="C106" s="71"/>
       <c r="D106" s="77"/>
       <c r="E106" s="14"/>
@@ -18793,7 +18795,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="B107" s="98"/>
+      <c r="B107" s="99"/>
       <c r="C107" s="71"/>
       <c r="D107" s="43" t="s">
         <v>41</v>
@@ -18817,7 +18819,7 @@
     </row>
     <row r="108" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
-      <c r="B108" s="98"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="71"/>
       <c r="D108" s="42"/>
       <c r="E108" s="8"/>
@@ -18831,7 +18833,7 @@
     </row>
     <row r="109" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
-      <c r="B109" s="98"/>
+      <c r="B109" s="99"/>
       <c r="C109" s="71"/>
       <c r="D109" s="77"/>
       <c r="E109" s="14"/>
@@ -18845,7 +18847,7 @@
     </row>
     <row r="110" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="B110" s="98"/>
+      <c r="B110" s="99"/>
       <c r="C110" s="71"/>
       <c r="D110" s="43" t="s">
         <v>42</v>
@@ -18869,7 +18871,7 @@
     </row>
     <row r="111" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
-      <c r="B111" s="98"/>
+      <c r="B111" s="99"/>
       <c r="C111" s="71"/>
       <c r="D111" s="42"/>
       <c r="E111" s="8"/>
@@ -18883,7 +18885,7 @@
     </row>
     <row r="112" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
-      <c r="B112" s="98"/>
+      <c r="B112" s="99"/>
       <c r="C112" s="71"/>
       <c r="D112" s="77"/>
       <c r="E112" s="14"/>
@@ -18897,13 +18899,13 @@
     </row>
     <row r="113" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="B113" s="98"/>
+      <c r="B113" s="99"/>
       <c r="C113" s="71"/>
       <c r="D113" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E113" s="14"/>
-      <c r="F113" s="118">
+      <c r="F113" s="78">
         <v>10000</v>
       </c>
       <c r="G113" s="14"/>
@@ -18921,7 +18923,7 @@
     </row>
     <row r="114" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
-      <c r="B114" s="98"/>
+      <c r="B114" s="99"/>
       <c r="C114" s="71"/>
       <c r="D114" s="42"/>
       <c r="E114" s="8"/>
@@ -18935,7 +18937,7 @@
     </row>
     <row r="115" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
-      <c r="B115" s="98"/>
+      <c r="B115" s="99"/>
       <c r="C115" s="71"/>
       <c r="D115" s="77"/>
       <c r="E115" s="14"/>
@@ -18949,13 +18951,13 @@
     </row>
     <row r="116" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="B116" s="98"/>
+      <c r="B116" s="99"/>
       <c r="C116" s="71"/>
       <c r="D116" s="43" t="s">
         <v>68</v>
       </c>
       <c r="E116" s="14"/>
-      <c r="F116" s="118">
+      <c r="F116" s="78">
         <v>10000</v>
       </c>
       <c r="G116" s="14"/>
@@ -18973,7 +18975,7 @@
     </row>
     <row r="117" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
-      <c r="B117" s="98"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="71"/>
       <c r="D117" s="42"/>
       <c r="E117" s="8"/>
@@ -18987,7 +18989,7 @@
     </row>
     <row r="118" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
-      <c r="B118" s="98"/>
+      <c r="B118" s="99"/>
       <c r="C118" s="71"/>
       <c r="D118" s="77"/>
       <c r="E118" s="14"/>
@@ -19001,7 +19003,7 @@
     </row>
     <row r="119" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="98"/>
+      <c r="B119" s="99"/>
       <c r="C119" s="71"/>
       <c r="D119" s="43" t="s">
         <v>53</v>
@@ -19025,7 +19027,7 @@
     </row>
     <row r="120" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
-      <c r="B120" s="98"/>
+      <c r="B120" s="99"/>
       <c r="C120" s="71"/>
       <c r="D120" s="42"/>
       <c r="E120" s="8"/>
@@ -19039,7 +19041,7 @@
     </row>
     <row r="121" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
-      <c r="B121" s="98"/>
+      <c r="B121" s="99"/>
       <c r="C121" s="71"/>
       <c r="D121" s="77"/>
       <c r="E121" s="14"/>
@@ -19053,7 +19055,7 @@
     </row>
     <row r="122" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="98"/>
+      <c r="B122" s="99"/>
       <c r="C122" s="71"/>
       <c r="D122" s="43" t="s">
         <v>43</v>
@@ -19077,7 +19079,7 @@
     </row>
     <row r="123" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
-      <c r="B123" s="98"/>
+      <c r="B123" s="99"/>
       <c r="C123" s="71"/>
       <c r="D123" s="42"/>
       <c r="E123" s="8"/>
@@ -19091,7 +19093,7 @@
     </row>
     <row r="124" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
-      <c r="B124" s="98"/>
+      <c r="B124" s="99"/>
       <c r="C124" s="71"/>
       <c r="D124" s="77"/>
       <c r="E124" s="14"/>
@@ -19105,7 +19107,7 @@
     </row>
     <row r="125" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="98"/>
+      <c r="B125" s="99"/>
       <c r="C125" s="71"/>
       <c r="D125" s="43" t="s">
         <v>44</v>
@@ -19129,7 +19131,7 @@
     </row>
     <row r="126" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
-      <c r="B126" s="98"/>
+      <c r="B126" s="99"/>
       <c r="C126" s="71"/>
       <c r="D126" s="42"/>
       <c r="E126" s="8"/>
@@ -19143,7 +19145,7 @@
     </row>
     <row r="127" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
-      <c r="B127" s="98"/>
+      <c r="B127" s="99"/>
       <c r="C127" s="71"/>
       <c r="D127" s="77"/>
       <c r="E127" s="14"/>
@@ -19157,7 +19159,7 @@
     </row>
     <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="98"/>
+      <c r="B128" s="99"/>
       <c r="C128" s="71"/>
       <c r="D128" s="43" t="s">
         <v>45</v>
@@ -19181,7 +19183,7 @@
     </row>
     <row r="129" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="98"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="71"/>
       <c r="D129" s="42"/>
       <c r="E129" s="8"/>
@@ -19195,7 +19197,7 @@
     </row>
     <row r="130" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="98"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="71"/>
       <c r="D130" s="77"/>
       <c r="E130" s="14"/>
@@ -19209,7 +19211,7 @@
     </row>
     <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="98"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="71"/>
       <c r="D131" s="43" t="s">
         <v>46</v>
@@ -19233,7 +19235,7 @@
     </row>
     <row r="132" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="B132" s="98"/>
+      <c r="B132" s="99"/>
       <c r="C132" s="71"/>
       <c r="D132" s="42"/>
       <c r="E132" s="8"/>
@@ -19247,7 +19249,7 @@
     </row>
     <row r="133" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
-      <c r="B133" s="98"/>
+      <c r="B133" s="99"/>
       <c r="C133" s="71"/>
       <c r="D133" s="77"/>
       <c r="E133" s="14"/>
@@ -19261,13 +19263,13 @@
     </row>
     <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="B134" s="98"/>
+      <c r="B134" s="99"/>
       <c r="C134" s="71"/>
       <c r="D134" s="43" t="s">
         <v>69</v>
       </c>
       <c r="E134" s="14"/>
-      <c r="F134" s="118">
+      <c r="F134" s="78">
         <v>10000</v>
       </c>
       <c r="G134" s="14"/>
@@ -19285,7 +19287,7 @@
     </row>
     <row r="135" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
-      <c r="B135" s="98"/>
+      <c r="B135" s="99"/>
       <c r="C135" s="71"/>
       <c r="D135" s="42"/>
       <c r="E135" s="8"/>
@@ -19299,7 +19301,7 @@
     </row>
     <row r="136" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
-      <c r="B136" s="98"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="71"/>
       <c r="D136" s="77"/>
       <c r="E136" s="14"/>
@@ -19313,13 +19315,13 @@
     </row>
     <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="B137" s="98"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="71"/>
       <c r="D137" s="43" t="s">
         <v>70</v>
       </c>
       <c r="E137" s="14"/>
-      <c r="F137" s="118">
+      <c r="F137" s="78">
         <v>10000</v>
       </c>
       <c r="G137" s="14"/>
@@ -19337,7 +19339,7 @@
     </row>
     <row r="138" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
-      <c r="B138" s="98"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="71"/>
       <c r="D138" s="42"/>
       <c r="E138" s="8"/>
@@ -19351,7 +19353,7 @@
     </row>
     <row r="139" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="B139" s="98"/>
+      <c r="B139" s="99"/>
       <c r="C139" s="71"/>
       <c r="D139" s="77"/>
       <c r="E139" s="14"/>
@@ -19365,7 +19367,7 @@
     </row>
     <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140" s="98"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="71"/>
       <c r="D140" s="43" t="s">
         <v>54</v>
@@ -19389,7 +19391,7 @@
     </row>
     <row r="141" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
-      <c r="B141" s="98"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="71"/>
       <c r="D141" s="42"/>
       <c r="E141" s="8"/>
@@ -19403,7 +19405,7 @@
     </row>
     <row r="142" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
-      <c r="B142" s="98"/>
+      <c r="B142" s="99"/>
       <c r="C142" s="71"/>
       <c r="D142" s="77"/>
       <c r="E142" s="14"/>
@@ -19417,7 +19419,7 @@
     </row>
     <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="B143" s="98"/>
+      <c r="B143" s="99"/>
       <c r="C143" s="71"/>
       <c r="D143" s="43" t="s">
         <v>55</v>
@@ -19441,7 +19443,7 @@
     </row>
     <row r="144" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
-      <c r="B144" s="98"/>
+      <c r="B144" s="99"/>
       <c r="C144" s="71"/>
       <c r="D144" s="42"/>
       <c r="E144" s="8"/>
@@ -19455,7 +19457,7 @@
     </row>
     <row r="145" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
-      <c r="B145" s="98"/>
+      <c r="B145" s="99"/>
       <c r="C145" s="71"/>
       <c r="D145" s="77"/>
       <c r="E145" s="14"/>
@@ -19469,7 +19471,7 @@
     </row>
     <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="98"/>
+      <c r="B146" s="99"/>
       <c r="C146" s="71"/>
       <c r="D146" s="69" t="s">
         <v>72</v>
@@ -19493,7 +19495,7 @@
     </row>
     <row r="147" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
-      <c r="B147" s="98"/>
+      <c r="B147" s="99"/>
       <c r="C147" s="71"/>
       <c r="D147" s="42"/>
       <c r="E147" s="8"/>
@@ -19507,7 +19509,7 @@
     </row>
     <row r="148" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148" s="98"/>
+      <c r="B148" s="99"/>
       <c r="C148" s="71"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -19521,7 +19523,7 @@
     </row>
     <row r="149" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
-      <c r="B149" s="100"/>
+      <c r="B149" s="101"/>
       <c r="C149" s="76"/>
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
@@ -19535,7 +19537,7 @@
     </row>
     <row r="150" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
-      <c r="B150" s="102" t="s">
+      <c r="B150" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="21"/>
@@ -19551,30 +19553,30 @@
     </row>
     <row r="151" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="B151" s="98"/>
+      <c r="B151" s="99"/>
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
-      <c r="E151" s="80" t="s">
+      <c r="E151" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F151" s="81"/>
-      <c r="G151" s="82"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="83"/>
       <c r="H151" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I151" s="80" t="s">
+      <c r="I151" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J151" s="81"/>
-      <c r="K151" s="82"/>
+      <c r="J151" s="82"/>
+      <c r="K151" s="83"/>
       <c r="L151" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
-      <c r="B152" s="98"/>
-      <c r="C152" s="83"/>
+      <c r="B152" s="99"/>
+      <c r="C152" s="84"/>
       <c r="D152" s="11"/>
       <c r="E152" s="14"/>
       <c r="F152" s="53"/>
@@ -19587,8 +19589,8 @@
     </row>
     <row r="153" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="98"/>
-      <c r="C153" s="84"/>
+      <c r="B153" s="99"/>
+      <c r="C153" s="85"/>
       <c r="D153" s="77" t="s">
         <v>13</v>
       </c>
@@ -19611,8 +19613,8 @@
     </row>
     <row r="154" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
-      <c r="B154" s="98"/>
-      <c r="C154" s="85"/>
+      <c r="B154" s="99"/>
+      <c r="C154" s="86"/>
       <c r="D154" s="74"/>
       <c r="E154" s="8"/>
       <c r="F154" s="54"/>
@@ -19625,8 +19627,8 @@
     </row>
     <row r="155" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-      <c r="B155" s="98"/>
-      <c r="C155" s="84"/>
+      <c r="B155" s="99"/>
+      <c r="C155" s="85"/>
       <c r="D155" s="11"/>
       <c r="E155" s="14"/>
       <c r="F155" s="53"/>
@@ -19639,8 +19641,8 @@
     </row>
     <row r="156" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="B156" s="98"/>
-      <c r="C156" s="84"/>
+      <c r="B156" s="99"/>
+      <c r="C156" s="85"/>
       <c r="D156" s="77" t="s">
         <v>14</v>
       </c>
@@ -19663,8 +19665,8 @@
     </row>
     <row r="157" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
-      <c r="B157" s="98"/>
-      <c r="C157" s="85"/>
+      <c r="B157" s="99"/>
+      <c r="C157" s="86"/>
       <c r="D157" s="74"/>
       <c r="E157" s="8"/>
       <c r="F157" s="54"/>
@@ -19677,8 +19679,8 @@
     </row>
     <row r="158" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
-      <c r="B158" s="98"/>
-      <c r="C158" s="84"/>
+      <c r="B158" s="99"/>
+      <c r="C158" s="85"/>
       <c r="D158" s="11"/>
       <c r="E158" s="14"/>
       <c r="F158" s="53"/>
@@ -19691,8 +19693,8 @@
     </row>
     <row r="159" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="B159" s="98"/>
-      <c r="C159" s="84"/>
+      <c r="B159" s="99"/>
+      <c r="C159" s="85"/>
       <c r="D159" s="77" t="s">
         <v>15</v>
       </c>
@@ -19715,8 +19717,8 @@
     </row>
     <row r="160" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
-      <c r="B160" s="98"/>
-      <c r="C160" s="85"/>
+      <c r="B160" s="99"/>
+      <c r="C160" s="86"/>
       <c r="D160" s="74"/>
       <c r="E160" s="8"/>
       <c r="F160" s="54"/>
@@ -19729,8 +19731,8 @@
     </row>
     <row r="161" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
-      <c r="B161" s="98"/>
-      <c r="C161" s="84"/>
+      <c r="B161" s="99"/>
+      <c r="C161" s="85"/>
       <c r="D161" s="11"/>
       <c r="E161" s="14"/>
       <c r="F161" s="53"/>
@@ -19743,8 +19745,8 @@
     </row>
     <row r="162" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="B162" s="98"/>
-      <c r="C162" s="84"/>
+      <c r="B162" s="99"/>
+      <c r="C162" s="85"/>
       <c r="D162" s="77" t="s">
         <v>16</v>
       </c>
@@ -19765,8 +19767,8 @@
     </row>
     <row r="163" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
-      <c r="B163" s="98"/>
-      <c r="C163" s="85"/>
+      <c r="B163" s="99"/>
+      <c r="C163" s="86"/>
       <c r="D163" s="74"/>
       <c r="E163" s="8"/>
       <c r="F163" s="54"/>
@@ -19779,8 +19781,8 @@
     </row>
     <row r="164" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
-      <c r="B164" s="98"/>
-      <c r="C164" s="84"/>
+      <c r="B164" s="99"/>
+      <c r="C164" s="85"/>
       <c r="D164" s="11"/>
       <c r="E164" s="14"/>
       <c r="F164" s="53"/>
@@ -19793,8 +19795,8 @@
     </row>
     <row r="165" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="B165" s="98"/>
-      <c r="C165" s="84"/>
+      <c r="B165" s="99"/>
+      <c r="C165" s="85"/>
       <c r="D165" s="77" t="s">
         <v>17</v>
       </c>
@@ -19817,8 +19819,8 @@
     </row>
     <row r="166" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
-      <c r="B166" s="98"/>
-      <c r="C166" s="85"/>
+      <c r="B166" s="99"/>
+      <c r="C166" s="86"/>
       <c r="D166" s="74"/>
       <c r="E166" s="8"/>
       <c r="F166" s="54"/>
@@ -19831,8 +19833,8 @@
     </row>
     <row r="167" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
-      <c r="B167" s="98"/>
-      <c r="C167" s="84"/>
+      <c r="B167" s="99"/>
+      <c r="C167" s="85"/>
       <c r="D167" s="11"/>
       <c r="E167" s="14"/>
       <c r="F167" s="53"/>
@@ -19845,8 +19847,8 @@
     </row>
     <row r="168" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
-      <c r="B168" s="98"/>
-      <c r="C168" s="84"/>
+      <c r="B168" s="99"/>
+      <c r="C168" s="85"/>
       <c r="D168" s="77" t="s">
         <v>18</v>
       </c>
@@ -19861,7 +19863,7 @@
     </row>
     <row r="169" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
-      <c r="B169" s="98"/>
+      <c r="B169" s="99"/>
       <c r="C169" s="71"/>
       <c r="D169" s="77"/>
       <c r="E169" s="14"/>
@@ -19875,7 +19877,7 @@
     </row>
     <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="B170" s="98"/>
+      <c r="B170" s="99"/>
       <c r="C170" s="71"/>
       <c r="D170" s="43" t="s">
         <v>56</v>
@@ -19899,7 +19901,7 @@
     </row>
     <row r="171" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
-      <c r="B171" s="98"/>
+      <c r="B171" s="99"/>
       <c r="C171" s="71"/>
       <c r="D171" s="42"/>
       <c r="E171" s="8"/>
@@ -19913,7 +19915,7 @@
     </row>
     <row r="172" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
-      <c r="B172" s="98"/>
+      <c r="B172" s="99"/>
       <c r="C172" s="71"/>
       <c r="D172" s="77"/>
       <c r="E172" s="14"/>
@@ -19927,7 +19929,7 @@
     </row>
     <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="B173" s="98"/>
+      <c r="B173" s="99"/>
       <c r="C173" s="71"/>
       <c r="D173" s="43" t="s">
         <v>61</v>
@@ -19951,7 +19953,7 @@
     </row>
     <row r="174" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
-      <c r="B174" s="98"/>
+      <c r="B174" s="99"/>
       <c r="C174" s="71"/>
       <c r="D174" s="42"/>
       <c r="E174" s="8"/>
@@ -19965,7 +19967,7 @@
     </row>
     <row r="175" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
-      <c r="B175" s="98"/>
+      <c r="B175" s="99"/>
       <c r="C175" s="71"/>
       <c r="D175" s="77"/>
       <c r="E175" s="14"/>
@@ -19979,7 +19981,7 @@
     </row>
     <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="B176" s="98"/>
+      <c r="B176" s="99"/>
       <c r="C176" s="71"/>
       <c r="D176" s="43" t="s">
         <v>59</v>
@@ -20003,7 +20005,7 @@
     </row>
     <row r="177" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
-      <c r="B177" s="98"/>
+      <c r="B177" s="99"/>
       <c r="C177" s="71"/>
       <c r="D177" s="42"/>
       <c r="E177" s="8"/>
@@ -20017,7 +20019,7 @@
     </row>
     <row r="178" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
-      <c r="B178" s="98"/>
+      <c r="B178" s="99"/>
       <c r="C178" s="71"/>
       <c r="D178" s="77"/>
       <c r="E178" s="14"/>
@@ -20031,7 +20033,7 @@
     </row>
     <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="B179" s="98"/>
+      <c r="B179" s="99"/>
       <c r="C179" s="71"/>
       <c r="D179" s="43" t="s">
         <v>62</v>
@@ -20055,7 +20057,7 @@
     </row>
     <row r="180" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
-      <c r="B180" s="98"/>
+      <c r="B180" s="99"/>
       <c r="C180" s="71"/>
       <c r="D180" s="42"/>
       <c r="E180" s="8"/>
@@ -20069,7 +20071,7 @@
     </row>
     <row r="181" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
-      <c r="B181" s="98"/>
+      <c r="B181" s="99"/>
       <c r="C181" s="71"/>
       <c r="D181" s="77"/>
       <c r="E181" s="14"/>
@@ -20083,7 +20085,7 @@
     </row>
     <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="B182" s="98"/>
+      <c r="B182" s="99"/>
       <c r="C182" s="71"/>
       <c r="D182" s="43" t="s">
         <v>60</v>
@@ -20107,7 +20109,7 @@
     </row>
     <row r="183" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
-      <c r="B183" s="98"/>
+      <c r="B183" s="99"/>
       <c r="C183" s="71"/>
       <c r="D183" s="42"/>
       <c r="E183" s="8"/>
@@ -20121,7 +20123,7 @@
     </row>
     <row r="184" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
-      <c r="B184" s="98"/>
+      <c r="B184" s="99"/>
       <c r="C184" s="71"/>
       <c r="D184" s="77"/>
       <c r="E184" s="14"/>
@@ -20135,7 +20137,7 @@
     </row>
     <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="B185" s="98"/>
+      <c r="B185" s="99"/>
       <c r="C185" s="71"/>
       <c r="D185" s="43" t="s">
         <v>63</v>
@@ -20159,7 +20161,7 @@
     </row>
     <row r="186" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
-      <c r="B186" s="98"/>
+      <c r="B186" s="99"/>
       <c r="C186" s="71"/>
       <c r="D186" s="42"/>
       <c r="E186" s="8"/>
@@ -20173,7 +20175,7 @@
     </row>
     <row r="187" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
-      <c r="B187" s="98"/>
+      <c r="B187" s="99"/>
       <c r="C187" s="71"/>
       <c r="D187" s="77"/>
       <c r="E187" s="14"/>
@@ -20187,7 +20189,7 @@
     </row>
     <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="B188" s="98"/>
+      <c r="B188" s="99"/>
       <c r="C188" s="71"/>
       <c r="D188" s="43" t="s">
         <v>64</v>
@@ -20211,7 +20213,7 @@
     </row>
     <row r="189" spans="1:12" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
-      <c r="B189" s="98"/>
+      <c r="B189" s="99"/>
       <c r="C189" s="71"/>
       <c r="D189" s="42"/>
       <c r="E189" s="8"/>
@@ -20225,7 +20227,7 @@
     </row>
     <row r="190" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
-      <c r="B190" s="98"/>
+      <c r="B190" s="99"/>
       <c r="C190" s="71"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -20239,7 +20241,7 @@
     </row>
     <row r="191" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
-      <c r="B191" s="100"/>
+      <c r="B191" s="101"/>
       <c r="C191" s="76"/>
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
@@ -20281,37 +20283,37 @@
     </row>
     <row r="194" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="B194" s="91" t="s">
+      <c r="B194" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C194" s="92"/>
-      <c r="D194" s="92"/>
-      <c r="E194" s="92"/>
-      <c r="F194" s="92"/>
-      <c r="G194" s="92"/>
-      <c r="H194" s="92"/>
-      <c r="I194" s="92"/>
-      <c r="J194" s="92"/>
-      <c r="K194" s="92"/>
-      <c r="L194" s="93"/>
+      <c r="C194" s="93"/>
+      <c r="D194" s="93"/>
+      <c r="E194" s="93"/>
+      <c r="F194" s="93"/>
+      <c r="G194" s="93"/>
+      <c r="H194" s="93"/>
+      <c r="I194" s="93"/>
+      <c r="J194" s="93"/>
+      <c r="K194" s="93"/>
+      <c r="L194" s="94"/>
     </row>
     <row r="195" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="B195" s="94"/>
-      <c r="C195" s="95"/>
-      <c r="D195" s="95"/>
-      <c r="E195" s="95"/>
-      <c r="F195" s="95"/>
-      <c r="G195" s="95"/>
-      <c r="H195" s="95"/>
-      <c r="I195" s="95"/>
-      <c r="J195" s="95"/>
-      <c r="K195" s="95"/>
-      <c r="L195" s="96"/>
+      <c r="B195" s="95"/>
+      <c r="C195" s="96"/>
+      <c r="D195" s="96"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="96"/>
+      <c r="G195" s="96"/>
+      <c r="H195" s="96"/>
+      <c r="I195" s="96"/>
+      <c r="J195" s="96"/>
+      <c r="K195" s="96"/>
+      <c r="L195" s="97"/>
     </row>
     <row r="196" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
-      <c r="B196" s="97" t="s">
+      <c r="B196" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C196" s="11"/>
@@ -20327,30 +20329,30 @@
     </row>
     <row r="197" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="B197" s="98"/>
+      <c r="B197" s="99"/>
       <c r="C197" s="6"/>
       <c r="D197" s="7"/>
-      <c r="E197" s="80" t="s">
+      <c r="E197" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F197" s="81"/>
-      <c r="G197" s="82"/>
+      <c r="F197" s="82"/>
+      <c r="G197" s="83"/>
       <c r="H197" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I197" s="80" t="s">
+      <c r="I197" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J197" s="81"/>
-      <c r="K197" s="82"/>
+      <c r="J197" s="82"/>
+      <c r="K197" s="83"/>
       <c r="L197" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
-      <c r="B198" s="98"/>
-      <c r="C198" s="83"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="84"/>
       <c r="D198" s="11"/>
       <c r="E198" s="14"/>
       <c r="F198" s="53"/>
@@ -20363,8 +20365,8 @@
     </row>
     <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="B199" s="98"/>
-      <c r="C199" s="84"/>
+      <c r="B199" s="99"/>
+      <c r="C199" s="85"/>
       <c r="D199" s="77" t="s">
         <v>20</v>
       </c>
@@ -20387,8 +20389,8 @@
     </row>
     <row r="200" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
-      <c r="B200" s="98"/>
-      <c r="C200" s="85"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="86"/>
       <c r="D200" s="74"/>
       <c r="E200" s="8"/>
       <c r="F200" s="54"/>
@@ -20401,8 +20403,8 @@
     </row>
     <row r="201" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
-      <c r="B201" s="98"/>
-      <c r="C201" s="84"/>
+      <c r="B201" s="99"/>
+      <c r="C201" s="85"/>
       <c r="D201" s="11"/>
       <c r="E201" s="14"/>
       <c r="F201" s="53"/>
@@ -20415,8 +20417,8 @@
     </row>
     <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="B202" s="98"/>
-      <c r="C202" s="84"/>
+      <c r="B202" s="99"/>
+      <c r="C202" s="85"/>
       <c r="D202" s="77" t="s">
         <v>21</v>
       </c>
@@ -20439,8 +20441,8 @@
     </row>
     <row r="203" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
-      <c r="B203" s="99"/>
-      <c r="C203" s="85"/>
+      <c r="B203" s="100"/>
+      <c r="C203" s="86"/>
       <c r="D203" s="74"/>
       <c r="E203" s="8"/>
       <c r="F203" s="54"/>
@@ -20453,7 +20455,7 @@
     </row>
     <row r="204" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
-      <c r="B204" s="97" t="s">
+      <c r="B204" s="98" t="s">
         <v>11</v>
       </c>
       <c r="C204" s="11"/>
@@ -20469,30 +20471,30 @@
     </row>
     <row r="205" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="B205" s="98"/>
+      <c r="B205" s="99"/>
       <c r="C205" s="6"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="80" t="s">
+      <c r="E205" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F205" s="81"/>
-      <c r="G205" s="82"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="83"/>
       <c r="H205" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I205" s="80" t="s">
+      <c r="I205" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J205" s="81"/>
-      <c r="K205" s="82"/>
+      <c r="J205" s="82"/>
+      <c r="K205" s="83"/>
       <c r="L205" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
-      <c r="B206" s="98"/>
-      <c r="C206" s="83"/>
+      <c r="B206" s="99"/>
+      <c r="C206" s="84"/>
       <c r="D206" s="11"/>
       <c r="E206" s="14"/>
       <c r="F206" s="53"/>
@@ -20505,8 +20507,8 @@
     </row>
     <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="B207" s="98"/>
-      <c r="C207" s="84"/>
+      <c r="B207" s="99"/>
+      <c r="C207" s="85"/>
       <c r="D207" s="77" t="s">
         <v>20</v>
       </c>
@@ -20529,8 +20531,8 @@
     </row>
     <row r="208" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
-      <c r="B208" s="98"/>
-      <c r="C208" s="85"/>
+      <c r="B208" s="99"/>
+      <c r="C208" s="86"/>
       <c r="D208" s="74"/>
       <c r="E208" s="8"/>
       <c r="F208" s="54"/>
@@ -20543,8 +20545,8 @@
     </row>
     <row r="209" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
-      <c r="B209" s="98"/>
-      <c r="C209" s="84"/>
+      <c r="B209" s="99"/>
+      <c r="C209" s="85"/>
       <c r="D209" s="11"/>
       <c r="E209" s="14"/>
       <c r="F209" s="53"/>
@@ -20557,8 +20559,8 @@
     </row>
     <row r="210" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="B210" s="98"/>
-      <c r="C210" s="84"/>
+      <c r="B210" s="99"/>
+      <c r="C210" s="85"/>
       <c r="D210" s="77" t="s">
         <v>21</v>
       </c>
@@ -20581,8 +20583,8 @@
     </row>
     <row r="211" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
-      <c r="B211" s="100"/>
-      <c r="C211" s="101"/>
+      <c r="B211" s="101"/>
+      <c r="C211" s="102"/>
       <c r="D211" s="19"/>
       <c r="E211" s="24"/>
       <c r="F211" s="57"/>
@@ -20623,23 +20625,23 @@
     </row>
     <row r="214" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="B214" s="88" t="s">
+      <c r="B214" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C214" s="89"/>
-      <c r="D214" s="89"/>
-      <c r="E214" s="89"/>
-      <c r="F214" s="89"/>
-      <c r="G214" s="89"/>
-      <c r="H214" s="89"/>
-      <c r="I214" s="89"/>
-      <c r="J214" s="89"/>
-      <c r="K214" s="89"/>
-      <c r="L214" s="90"/>
+      <c r="C214" s="90"/>
+      <c r="D214" s="90"/>
+      <c r="E214" s="90"/>
+      <c r="F214" s="90"/>
+      <c r="G214" s="90"/>
+      <c r="H214" s="90"/>
+      <c r="I214" s="90"/>
+      <c r="J214" s="90"/>
+      <c r="K214" s="90"/>
+      <c r="L214" s="91"/>
     </row>
     <row r="215" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
-      <c r="B215" s="78"/>
+      <c r="B215" s="79"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -20653,26 +20655,26 @@
     </row>
     <row r="216" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="B216" s="78"/>
+      <c r="B216" s="79"/>
       <c r="C216" s="6"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="80" t="s">
+      <c r="E216" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F216" s="81"/>
-      <c r="G216" s="82"/>
-      <c r="H216" s="80" t="s">
+      <c r="F216" s="82"/>
+      <c r="G216" s="83"/>
+      <c r="H216" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I216" s="81"/>
-      <c r="J216" s="81"/>
-      <c r="K216" s="81"/>
-      <c r="L216" s="82"/>
+      <c r="I216" s="82"/>
+      <c r="J216" s="82"/>
+      <c r="K216" s="82"/>
+      <c r="L216" s="83"/>
     </row>
     <row r="217" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
-      <c r="B217" s="78"/>
-      <c r="C217" s="83"/>
+      <c r="B217" s="79"/>
+      <c r="C217" s="84"/>
       <c r="D217" s="11"/>
       <c r="E217" s="14"/>
       <c r="F217" s="53"/>
@@ -20685,8 +20687,8 @@
     </row>
     <row r="218" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="B218" s="78"/>
-      <c r="C218" s="84"/>
+      <c r="B218" s="79"/>
+      <c r="C218" s="85"/>
       <c r="D218" s="77" t="s">
         <v>6</v>
       </c>
@@ -20695,18 +20697,18 @@
         <v>8</v>
       </c>
       <c r="G218" s="14"/>
-      <c r="H218" s="86" t="s">
+      <c r="H218" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="I218" s="86"/>
-      <c r="J218" s="86"/>
-      <c r="K218" s="86"/>
-      <c r="L218" s="87"/>
+      <c r="I218" s="87"/>
+      <c r="J218" s="87"/>
+      <c r="K218" s="87"/>
+      <c r="L218" s="88"/>
     </row>
     <row r="219" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
-      <c r="B219" s="78"/>
-      <c r="C219" s="85"/>
+      <c r="B219" s="79"/>
+      <c r="C219" s="86"/>
       <c r="D219" s="74"/>
       <c r="E219" s="8"/>
       <c r="F219" s="54"/>
@@ -20719,8 +20721,8 @@
     </row>
     <row r="220" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
-      <c r="B220" s="78"/>
-      <c r="C220" s="84"/>
+      <c r="B220" s="79"/>
+      <c r="C220" s="85"/>
       <c r="D220" s="11"/>
       <c r="E220" s="14"/>
       <c r="F220" s="53"/>
@@ -20733,8 +20735,8 @@
     </row>
     <row r="221" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
-      <c r="B221" s="78"/>
-      <c r="C221" s="84"/>
+      <c r="B221" s="79"/>
+      <c r="C221" s="85"/>
       <c r="D221" s="77" t="s">
         <v>23</v>
       </c>
@@ -20749,7 +20751,7 @@
     </row>
     <row r="222" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
-      <c r="B222" s="78"/>
+      <c r="B222" s="79"/>
       <c r="C222" s="71"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -20763,7 +20765,7 @@
     </row>
     <row r="223" spans="1:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
-      <c r="B223" s="79"/>
+      <c r="B223" s="80"/>
       <c r="C223" s="72"/>
       <c r="D223" s="74"/>
       <c r="E223" s="74"/>
@@ -20944,15 +20946,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="200" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId5" name="cbApplyLevelFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId6">
+        <control shapeId="9217" r:id="rId6" name="cbApplyLevelFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -20971,13 +20974,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9217" r:id="rId5" name="cbApplyLevelFormatting"/>
+        <control shapeId="9217" r:id="rId6" name="cbApplyLevelFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9243" r:id="rId7" name="cbApplyMemberFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId8">
+        <control shapeId="9243" r:id="rId8" name="cbApplyMemberFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -20996,13 +20999,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9243" r:id="rId7" name="cbApplyMemberFormatting"/>
+        <control shapeId="9243" r:id="rId8" name="cbApplyMemberFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9261" r:id="rId9" name="cbApplyOddEvenFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId10">
+        <control shapeId="9261" r:id="rId10" name="cbApplyOddEvenFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -21021,13 +21024,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9261" r:id="rId9" name="cbApplyOddEvenFormatting"/>
+        <control shapeId="9261" r:id="rId10" name="cbApplyOddEvenFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9269" r:id="rId11" name="cbApplyPageHeaderFormatting">
-          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId12">
+        <control shapeId="9269" r:id="rId12" name="cbApplyPageHeaderFormatting">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -21046,12 +21049,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9269" r:id="rId11" name="cbApplyPageHeaderFormatting"/>
+        <control shapeId="9269" r:id="rId12" name="cbApplyPageHeaderFormatting"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId13" name="Group Box 2">
+        <control shapeId="9218" r:id="rId14" name="Group Box 2">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21073,7 +21076,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId14" name="obLevelRowFirst">
+        <control shapeId="9219" r:id="rId15" name="obLevelRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21095,7 +21098,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId15" name="obLevelColumnFirst">
+        <control shapeId="9220" r:id="rId16" name="obLevelColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21117,7 +21120,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9221" r:id="rId16" name="Group Box 5">
+        <control shapeId="9221" r:id="rId17" name="Group Box 5">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21139,7 +21142,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9222" r:id="rId17" name="obRelativeLevelHierarchy">
+        <control shapeId="9222" r:id="rId18" name="obRelativeLevelHierarchy">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21161,7 +21164,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9223" r:id="rId18" name="obDatabaseLevelHierarchy">
+        <control shapeId="9223" r:id="rId19" name="obDatabaseLevelHierarchy">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21183,7 +21186,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9224" r:id="rId19" name="cbApplyLevelFromTopToBottom">
+        <control shapeId="9224" r:id="rId20" name="cbApplyLevelFromTopToBottom">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21205,7 +21208,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9225" r:id="rId20" name="LVL1tbFormattingByLevel">
+        <control shapeId="9225" r:id="rId21" name="LVL1tbFormattingByLevel">
           <controlPr defaultSize="0" autoFill="0" autoPict="0">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21227,7 +21230,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9226" r:id="rId21" name="Group Box 10">
+        <control shapeId="9226" r:id="rId22" name="Group Box 10">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21249,7 +21252,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9227" r:id="rId22" name="obLevelOuterFirst">
+        <control shapeId="9227" r:id="rId23" name="obLevelOuterFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21271,7 +21274,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9228" r:id="rId23" name="obLevelInnerFirst">
+        <control shapeId="9228" r:id="rId24" name="obLevelInnerFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21293,7 +21296,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9229" r:id="rId24" name="cbUseDefaultLevelFirst">
+        <control shapeId="9229" r:id="rId25" name="cbUseDefaultLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21315,7 +21318,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9230" r:id="rId25" name="cbUseLeafLevelFirst">
+        <control shapeId="9230" r:id="rId26" name="cbUseLeafLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21337,7 +21340,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9231" r:id="rId26" name="cbUseSpecificLevelFirst">
+        <control shapeId="9231" r:id="rId27" name="cbUseSpecificLevelFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21359,7 +21362,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9232" r:id="rId27" name="AddLevelFirst">
+        <control shapeId="9232" r:id="rId28" name="AddLevelFirst">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21381,7 +21384,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9233" r:id="rId28" name="RemoveLevelFirst">
+        <control shapeId="9233" r:id="rId29" name="RemoveLevelFirst">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21403,7 +21406,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9234" r:id="rId29" name="LVL2tbFormattingByLevel">
+        <control shapeId="9234" r:id="rId30" name="LVL2tbFormattingByLevel">
           <controlPr defaultSize="0" autoFill="0" autoPict="0">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21425,7 +21428,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9235" r:id="rId30" name="Group Box 19">
+        <control shapeId="9235" r:id="rId31" name="Group Box 19">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21447,7 +21450,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9236" r:id="rId31" name="obLevelOuterSecond">
+        <control shapeId="9236" r:id="rId32" name="obLevelOuterSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21469,7 +21472,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9237" r:id="rId32" name="obLevelInnerSecond">
+        <control shapeId="9237" r:id="rId33" name="obLevelInnerSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21491,7 +21494,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9238" r:id="rId33" name="cbUseDefaultLevelSecond">
+        <control shapeId="9238" r:id="rId34" name="cbUseDefaultLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21513,7 +21516,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9239" r:id="rId34" name="cbUseLeafLevelSecond">
+        <control shapeId="9239" r:id="rId35" name="cbUseLeafLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21535,7 +21538,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9240" r:id="rId35" name="cbUseSpecificLevelSecond">
+        <control shapeId="9240" r:id="rId36" name="cbUseSpecificLevelSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21557,7 +21560,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9241" r:id="rId36" name="AddLevelSecond">
+        <control shapeId="9241" r:id="rId37" name="AddLevelSecond">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21579,7 +21582,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9242" r:id="rId37" name="RemoveLevelSecond">
+        <control shapeId="9242" r:id="rId38" name="RemoveLevelSecond">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21601,7 +21604,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9244" r:id="rId38" name="Group Box 28">
+        <control shapeId="9244" r:id="rId39" name="Group Box 28">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21623,7 +21626,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9245" r:id="rId39" name="obMemberRowFirst">
+        <control shapeId="9245" r:id="rId40" name="obMemberRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21645,7 +21648,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9246" r:id="rId40" name="obMemberColumnFirst">
+        <control shapeId="9246" r:id="rId41" name="obMemberColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -21667,7 +21670,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9247" r:id="rId41" name="cbApplyCustomMemberDefaultFirst">
+        <control shapeId="9247" r:id="rId42" name="cbApplyCustomMemberDefaultFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21689,7 +21692,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9248" r:id="rId42" name="cbApplyCalculatedMemberFirst">
+        <control shapeId="9248" r:id="rId43" name="cbApplyCalculatedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21711,7 +21714,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9249" r:id="rId43" name="cbApplyImputableMemberFirst">
+        <control shapeId="9249" r:id="rId44" name="cbApplyImputableMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21733,7 +21736,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9250" r:id="rId44" name="cbApplyLocalMemberFirst">
+        <control shapeId="9250" r:id="rId45" name="cbApplyLocalMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21755,7 +21758,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9251" r:id="rId45" name="cbApplyChangedMemberFirst">
+        <control shapeId="9251" r:id="rId46" name="cbApplyChangedMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21777,7 +21780,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9252" r:id="rId46" name="cbApplySpecificMemberFirst">
+        <control shapeId="9252" r:id="rId47" name="cbApplySpecificMemberFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21799,7 +21802,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9253" r:id="rId47" name="AddMemberFirst">
+        <control shapeId="9253" r:id="rId48" name="AddMemberFirst">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21821,7 +21824,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9254" r:id="rId48" name="cbApplyCustomMemberDefaultSecond">
+        <control shapeId="9254" r:id="rId49" name="cbApplyCustomMemberDefaultSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21843,7 +21846,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9255" r:id="rId49" name="cbApplyCalculatedMemberSecond">
+        <control shapeId="9255" r:id="rId50" name="cbApplyCalculatedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21865,7 +21868,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9256" r:id="rId50" name="cbApplyImputableMemberSecond">
+        <control shapeId="9256" r:id="rId51" name="cbApplyImputableMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21887,7 +21890,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9257" r:id="rId51" name="cbApplyLocalMemberSecond">
+        <control shapeId="9257" r:id="rId52" name="cbApplyLocalMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21909,7 +21912,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9258" r:id="rId52" name="cbApplyChangedMemberSecond">
+        <control shapeId="9258" r:id="rId53" name="cbApplyChangedMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21931,7 +21934,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9259" r:id="rId53" name="cbApplySpecificMemberSecond">
+        <control shapeId="9259" r:id="rId54" name="cbApplySpecificMemberSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21953,7 +21956,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9260" r:id="rId54" name="AddMemberSecond">
+        <control shapeId="9260" r:id="rId55" name="AddMemberSecond">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -21975,7 +21978,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9262" r:id="rId55" name="Group Box 46">
+        <control shapeId="9262" r:id="rId56" name="Group Box 46">
           <controlPr defaultSize="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -21997,7 +22000,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9263" r:id="rId56" name="obOddEvenRowFirst">
+        <control shapeId="9263" r:id="rId57" name="obOddEvenRowFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -22019,7 +22022,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9264" r:id="rId57" name="obOddEvenColumnFirst">
+        <control shapeId="9264" r:id="rId58" name="obOddEvenColumnFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -22041,7 +22044,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9265" r:id="rId58" name="cbUseOddFirst">
+        <control shapeId="9265" r:id="rId59" name="cbUseOddFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22063,7 +22066,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9266" r:id="rId59" name="cbUseEvenFirst">
+        <control shapeId="9266" r:id="rId60" name="cbUseEvenFirst">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22085,7 +22088,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9267" r:id="rId60" name="cbUseOddSecond">
+        <control shapeId="9267" r:id="rId61" name="cbUseOddSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22107,7 +22110,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9268" r:id="rId61" name="cbUseEvenSecond">
+        <control shapeId="9268" r:id="rId62" name="cbUseEvenSecond">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22129,7 +22132,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9270" r:id="rId62" name="cbUseDefaultPageHeaderFormat">
+        <control shapeId="9270" r:id="rId63" name="cbUseDefaultPageHeaderFormat">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22151,7 +22154,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9271" r:id="rId63" name="cbUseDimensionFormatting">
+        <control shapeId="9271" r:id="rId64" name="cbUseDimensionFormatting">
           <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
             <anchor moveWithCells="1">
               <from>
@@ -22173,7 +22176,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9272" r:id="rId64" name="AddDimension">
+        <control shapeId="9272" r:id="rId65" name="AddDimension">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22195,7 +22198,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9273" r:id="rId65" name="AddedMember1_1">
+        <control shapeId="9273" r:id="rId66" name="AddedMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22217,7 +22220,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9274" r:id="rId66" name="ChangeMember1_1">
+        <control shapeId="9274" r:id="rId67" name="ChangeMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22239,7 +22242,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9275" r:id="rId67" name="UpMember1_1">
+        <control shapeId="9275" r:id="rId68" name="UpMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22261,7 +22264,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9276" r:id="rId68" name="DownMember1_1">
+        <control shapeId="9276" r:id="rId69" name="DownMember1_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22283,7 +22286,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9277" r:id="rId69" name="AddedMember1_2">
+        <control shapeId="9277" r:id="rId70" name="AddedMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22305,7 +22308,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9278" r:id="rId70" name="ChangeMember1_2">
+        <control shapeId="9278" r:id="rId71" name="ChangeMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22327,7 +22330,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9279" r:id="rId71" name="UpMember1_2">
+        <control shapeId="9279" r:id="rId72" name="UpMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22349,7 +22352,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9280" r:id="rId72" name="DownMember1_2">
+        <control shapeId="9280" r:id="rId73" name="DownMember1_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22371,7 +22374,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9281" r:id="rId73" name="AddedMember1_3">
+        <control shapeId="9281" r:id="rId74" name="AddedMember1_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22393,7 +22396,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9282" r:id="rId74" name="ChangeMember1_3">
+        <control shapeId="9282" r:id="rId75" name="ChangeMember1_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22415,7 +22418,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9283" r:id="rId75" name="UpMember1_3">
+        <control shapeId="9283" r:id="rId76" name="UpMember1_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22437,7 +22440,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9284" r:id="rId76" name="DownMember1_3">
+        <control shapeId="9284" r:id="rId77" name="DownMember1_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22459,7 +22462,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9285" r:id="rId77" name="AddedMember1_4">
+        <control shapeId="9285" r:id="rId78" name="AddedMember1_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22481,7 +22484,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9286" r:id="rId78" name="ChangeMember1_4">
+        <control shapeId="9286" r:id="rId79" name="ChangeMember1_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22503,7 +22506,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9287" r:id="rId79" name="UpMember1_4">
+        <control shapeId="9287" r:id="rId80" name="UpMember1_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22525,7 +22528,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9288" r:id="rId80" name="DownMember1_4">
+        <control shapeId="9288" r:id="rId81" name="DownMember1_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22547,7 +22550,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9289" r:id="rId81" name="AddedMember1_5">
+        <control shapeId="9289" r:id="rId82" name="AddedMember1_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22569,7 +22572,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9290" r:id="rId82" name="ChangeMember1_5">
+        <control shapeId="9290" r:id="rId83" name="ChangeMember1_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22591,7 +22594,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9291" r:id="rId83" name="UpMember1_5">
+        <control shapeId="9291" r:id="rId84" name="UpMember1_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22613,7 +22616,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9292" r:id="rId84" name="DownMember1_5">
+        <control shapeId="9292" r:id="rId85" name="DownMember1_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22635,7 +22638,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9293" r:id="rId85" name="AddedMember1_6">
+        <control shapeId="9293" r:id="rId86" name="AddedMember1_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22657,7 +22660,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9294" r:id="rId86" name="ChangeMember1_6">
+        <control shapeId="9294" r:id="rId87" name="ChangeMember1_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22679,7 +22682,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9295" r:id="rId87" name="UpMember1_6">
+        <control shapeId="9295" r:id="rId88" name="UpMember1_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22701,7 +22704,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9296" r:id="rId88" name="DownMember1_6">
+        <control shapeId="9296" r:id="rId89" name="DownMember1_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22723,7 +22726,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9297" r:id="rId89" name="AddedMember1_7">
+        <control shapeId="9297" r:id="rId90" name="AddedMember1_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22745,7 +22748,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9298" r:id="rId90" name="ChangeMember1_7">
+        <control shapeId="9298" r:id="rId91" name="ChangeMember1_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22767,7 +22770,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9299" r:id="rId91" name="UpMember1_7">
+        <control shapeId="9299" r:id="rId92" name="UpMember1_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22789,7 +22792,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9300" r:id="rId92" name="DownMember1_7">
+        <control shapeId="9300" r:id="rId93" name="DownMember1_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22811,7 +22814,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9301" r:id="rId93" name="AddedMember1_8">
+        <control shapeId="9301" r:id="rId94" name="AddedMember1_8">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22833,7 +22836,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9302" r:id="rId94" name="ChangeMember1_8">
+        <control shapeId="9302" r:id="rId95" name="ChangeMember1_8">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22855,7 +22858,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9303" r:id="rId95" name="UpMember1_8">
+        <control shapeId="9303" r:id="rId96" name="UpMember1_8">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22877,7 +22880,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9304" r:id="rId96" name="DownMember1_8">
+        <control shapeId="9304" r:id="rId97" name="DownMember1_8">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22899,7 +22902,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9305" r:id="rId97" name="AddedMember1_9">
+        <control shapeId="9305" r:id="rId98" name="AddedMember1_9">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22921,7 +22924,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9306" r:id="rId98" name="ChangeMember1_9">
+        <control shapeId="9306" r:id="rId99" name="ChangeMember1_9">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22943,7 +22946,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9307" r:id="rId99" name="UpMember1_9">
+        <control shapeId="9307" r:id="rId100" name="UpMember1_9">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22965,7 +22968,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9308" r:id="rId100" name="DownMember1_9">
+        <control shapeId="9308" r:id="rId101" name="DownMember1_9">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -22987,7 +22990,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9309" r:id="rId101" name="AddedMember1_10">
+        <control shapeId="9309" r:id="rId102" name="AddedMember1_10">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23009,7 +23012,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9310" r:id="rId102" name="ChangeMember1_10">
+        <control shapeId="9310" r:id="rId103" name="ChangeMember1_10">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23031,7 +23034,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9311" r:id="rId103" name="UpMember1_10">
+        <control shapeId="9311" r:id="rId104" name="UpMember1_10">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23053,7 +23056,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9312" r:id="rId104" name="DownMember1_10">
+        <control shapeId="9312" r:id="rId105" name="DownMember1_10">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23075,7 +23078,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9313" r:id="rId105" name="AddedMember1_11">
+        <control shapeId="9313" r:id="rId106" name="AddedMember1_11">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23097,7 +23100,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9314" r:id="rId106" name="ChangeMember1_11">
+        <control shapeId="9314" r:id="rId107" name="ChangeMember1_11">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23119,7 +23122,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9315" r:id="rId107" name="UpMember1_11">
+        <control shapeId="9315" r:id="rId108" name="UpMember1_11">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23141,7 +23144,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9316" r:id="rId108" name="DownMember1_11">
+        <control shapeId="9316" r:id="rId109" name="DownMember1_11">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23163,7 +23166,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9317" r:id="rId109" name="AddedMember1_12">
+        <control shapeId="9317" r:id="rId110" name="AddedMember1_12">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23185,7 +23188,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9318" r:id="rId110" name="ChangeMember1_12">
+        <control shapeId="9318" r:id="rId111" name="ChangeMember1_12">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23207,7 +23210,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9319" r:id="rId111" name="UpMember1_12">
+        <control shapeId="9319" r:id="rId112" name="UpMember1_12">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23229,7 +23232,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9320" r:id="rId112" name="DownMember1_12">
+        <control shapeId="9320" r:id="rId113" name="DownMember1_12">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23251,7 +23254,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9321" r:id="rId113" name="AddedMember1_13">
+        <control shapeId="9321" r:id="rId114" name="AddedMember1_13">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23273,7 +23276,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9322" r:id="rId114" name="ChangeMember1_13">
+        <control shapeId="9322" r:id="rId115" name="ChangeMember1_13">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23295,7 +23298,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9323" r:id="rId115" name="UpMember1_13">
+        <control shapeId="9323" r:id="rId116" name="UpMember1_13">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23317,7 +23320,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9324" r:id="rId116" name="DownMember1_13">
+        <control shapeId="9324" r:id="rId117" name="DownMember1_13">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -23339,7 +23342,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9325" r:id="rId117" name="AddedMember1_14">
+        <control shapeId="9325" r:id="rId118" name="AddedMember1_14">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23361,7 +23364,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9326" r:id="rId118" name="ChangeMember1_14">
+        <control shapeId="9326" r:id="rId119" name="ChangeMember1_14">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23383,7 +23386,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9327" r:id="rId119" name="UpMember1_14">
+        <control shapeId="9327" r:id="rId120" name="UpMember1_14">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23405,7 +23408,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9328" r:id="rId120" name="DownMember1_14">
+        <control shapeId="9328" r:id="rId121" name="DownMember1_14">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23427,7 +23430,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9329" r:id="rId121" name="AddedMember1_15">
+        <control shapeId="9329" r:id="rId122" name="AddedMember1_15">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23449,7 +23452,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9330" r:id="rId122" name="ChangeMember1_15">
+        <control shapeId="9330" r:id="rId123" name="ChangeMember1_15">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23471,7 +23474,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9331" r:id="rId123" name="UpMember1_15">
+        <control shapeId="9331" r:id="rId124" name="UpMember1_15">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23493,7 +23496,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9332" r:id="rId124" name="DownMember1_15">
+        <control shapeId="9332" r:id="rId125" name="DownMember1_15">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23515,7 +23518,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9333" r:id="rId125" name="AddedMember1_16">
+        <control shapeId="9333" r:id="rId126" name="AddedMember1_16">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23537,7 +23540,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9334" r:id="rId126" name="ChangeMember1_16">
+        <control shapeId="9334" r:id="rId127" name="ChangeMember1_16">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23559,7 +23562,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9335" r:id="rId127" name="UpMember1_16">
+        <control shapeId="9335" r:id="rId128" name="UpMember1_16">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23581,7 +23584,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9336" r:id="rId128" name="DownMember1_16">
+        <control shapeId="9336" r:id="rId129" name="DownMember1_16">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23603,7 +23606,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9337" r:id="rId129" name="AddedMember1_17">
+        <control shapeId="9337" r:id="rId130" name="AddedMember1_17">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23625,7 +23628,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9338" r:id="rId130" name="ChangeMember1_17">
+        <control shapeId="9338" r:id="rId131" name="ChangeMember1_17">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23647,7 +23650,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9339" r:id="rId131" name="UpMember1_17">
+        <control shapeId="9339" r:id="rId132" name="UpMember1_17">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23669,7 +23672,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9340" r:id="rId132" name="DownMember1_17">
+        <control shapeId="9340" r:id="rId133" name="DownMember1_17">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23691,7 +23694,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9341" r:id="rId133" name="AddedMember1_18">
+        <control shapeId="9341" r:id="rId134" name="AddedMember1_18">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23713,7 +23716,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9342" r:id="rId134" name="ChangeMember1_18">
+        <control shapeId="9342" r:id="rId135" name="ChangeMember1_18">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23735,7 +23738,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9343" r:id="rId135" name="UpMember1_18">
+        <control shapeId="9343" r:id="rId136" name="UpMember1_18">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23757,7 +23760,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9344" r:id="rId136" name="DownMember1_18">
+        <control shapeId="9344" r:id="rId137" name="DownMember1_18">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23779,7 +23782,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9345" r:id="rId137" name="AddedMember2_1">
+        <control shapeId="9345" r:id="rId138" name="AddedMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23801,7 +23804,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9346" r:id="rId138" name="ChangeMember2_1">
+        <control shapeId="9346" r:id="rId139" name="ChangeMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23823,7 +23826,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9347" r:id="rId139" name="UpMember2_1">
+        <control shapeId="9347" r:id="rId140" name="UpMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23845,7 +23848,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9348" r:id="rId140" name="DownMember2_1">
+        <control shapeId="9348" r:id="rId141" name="DownMember2_1">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23867,7 +23870,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9349" r:id="rId141" name="AddedMember2_2">
+        <control shapeId="9349" r:id="rId142" name="AddedMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23889,7 +23892,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9350" r:id="rId142" name="ChangeMember2_2">
+        <control shapeId="9350" r:id="rId143" name="ChangeMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23911,7 +23914,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9351" r:id="rId143" name="UpMember2_2">
+        <control shapeId="9351" r:id="rId144" name="UpMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23933,7 +23936,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9352" r:id="rId144" name="DownMember2_2">
+        <control shapeId="9352" r:id="rId145" name="DownMember2_2">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23955,7 +23958,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9353" r:id="rId145" name="AddedMember2_3">
+        <control shapeId="9353" r:id="rId146" name="AddedMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23977,7 +23980,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9354" r:id="rId146" name="ChangeMember2_3">
+        <control shapeId="9354" r:id="rId147" name="ChangeMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -23999,7 +24002,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9355" r:id="rId147" name="UpMember2_3">
+        <control shapeId="9355" r:id="rId148" name="UpMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24021,7 +24024,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9356" r:id="rId148" name="DownMember2_3">
+        <control shapeId="9356" r:id="rId149" name="DownMember2_3">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24043,7 +24046,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9357" r:id="rId149" name="AddedMember2_4">
+        <control shapeId="9357" r:id="rId150" name="AddedMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24065,7 +24068,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9358" r:id="rId150" name="ChangeMember2_4">
+        <control shapeId="9358" r:id="rId151" name="ChangeMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24087,7 +24090,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9359" r:id="rId151" name="UpMember2_4">
+        <control shapeId="9359" r:id="rId152" name="UpMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24109,7 +24112,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9360" r:id="rId152" name="DownMember2_4">
+        <control shapeId="9360" r:id="rId153" name="DownMember2_4">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24131,7 +24134,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9361" r:id="rId153" name="AddedMember2_5">
+        <control shapeId="9361" r:id="rId154" name="AddedMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24153,7 +24156,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9362" r:id="rId154" name="ChangeMember2_5">
+        <control shapeId="9362" r:id="rId155" name="ChangeMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24175,7 +24178,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9363" r:id="rId155" name="UpMember2_5">
+        <control shapeId="9363" r:id="rId156" name="UpMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24197,7 +24200,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9364" r:id="rId156" name="DownMember2_5">
+        <control shapeId="9364" r:id="rId157" name="DownMember2_5">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24219,7 +24222,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9365" r:id="rId157" name="AddedMember2_6">
+        <control shapeId="9365" r:id="rId158" name="AddedMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24241,7 +24244,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9366" r:id="rId158" name="ChangeMember2_6">
+        <control shapeId="9366" r:id="rId159" name="ChangeMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24263,7 +24266,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9367" r:id="rId159" name="UpMember2_6">
+        <control shapeId="9367" r:id="rId160" name="UpMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24285,7 +24288,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9368" r:id="rId160" name="DownMember2_6">
+        <control shapeId="9368" r:id="rId161" name="DownMember2_6">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24307,7 +24310,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9369" r:id="rId161" name="AddedMember2_7">
+        <control shapeId="9369" r:id="rId162" name="AddedMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24329,7 +24332,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9370" r:id="rId162" name="ChangeMember2_7">
+        <control shapeId="9370" r:id="rId163" name="ChangeMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24351,7 +24354,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9371" r:id="rId163" name="UpMember2_7">
+        <control shapeId="9371" r:id="rId164" name="UpMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24373,7 +24376,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9372" r:id="rId164" name="DownMember2_7">
+        <control shapeId="9372" r:id="rId165" name="DownMember2_7">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24395,7 +24398,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9373" r:id="rId165" name="AddedMember1_19">
+        <control shapeId="9373" r:id="rId166" name="AddedMember1_19">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24417,7 +24420,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9374" r:id="rId166" name="ChangeMember1_19">
+        <control shapeId="9374" r:id="rId167" name="ChangeMember1_19">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24439,7 +24442,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9375" r:id="rId167" name="UpMember1_19">
+        <control shapeId="9375" r:id="rId168" name="UpMember1_19">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24461,7 +24464,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9376" r:id="rId168" name="DownMember1_19">
+        <control shapeId="9376" r:id="rId169" name="DownMember1_19">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24483,7 +24486,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9377" r:id="rId169" name="AddedMember1_20">
+        <control shapeId="9377" r:id="rId170" name="AddedMember1_20">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24505,7 +24508,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9378" r:id="rId170" name="ChangeMember1_20">
+        <control shapeId="9378" r:id="rId171" name="ChangeMember1_20">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24527,7 +24530,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9379" r:id="rId171" name="UpMember1_20">
+        <control shapeId="9379" r:id="rId172" name="UpMember1_20">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24549,7 +24552,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9380" r:id="rId172" name="DownMember1_20">
+        <control shapeId="9380" r:id="rId173" name="DownMember1_20">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24571,7 +24574,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9381" r:id="rId173" name="AddedMember1_21">
+        <control shapeId="9381" r:id="rId174" name="AddedMember1_21">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24593,7 +24596,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9382" r:id="rId174" name="ChangeMember1_21">
+        <control shapeId="9382" r:id="rId175" name="ChangeMember1_21">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24615,7 +24618,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9383" r:id="rId175" name="UpMember1_21">
+        <control shapeId="9383" r:id="rId176" name="UpMember1_21">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24637,7 +24640,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9384" r:id="rId176" name="DownMember1_21">
+        <control shapeId="9384" r:id="rId177" name="DownMember1_21">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24659,7 +24662,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9385" r:id="rId177" name="AddedMember1_22">
+        <control shapeId="9385" r:id="rId178" name="AddedMember1_22">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24681,7 +24684,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9386" r:id="rId178" name="ChangeMember1_22">
+        <control shapeId="9386" r:id="rId179" name="ChangeMember1_22">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24703,7 +24706,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9387" r:id="rId179" name="UpMember1_22">
+        <control shapeId="9387" r:id="rId180" name="UpMember1_22">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24725,7 +24728,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9388" r:id="rId180" name="DownMember1_22">
+        <control shapeId="9388" r:id="rId181" name="DownMember1_22">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24747,7 +24750,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9389" r:id="rId181" name="AddedMember1_23">
+        <control shapeId="9389" r:id="rId182" name="AddedMember1_23">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24769,7 +24772,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9390" r:id="rId182" name="ChangeMember1_23">
+        <control shapeId="9390" r:id="rId183" name="ChangeMember1_23">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24791,7 +24794,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9391" r:id="rId183" name="UpMember1_23">
+        <control shapeId="9391" r:id="rId184" name="UpMember1_23">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24813,7 +24816,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9392" r:id="rId184" name="DownMember1_23">
+        <control shapeId="9392" r:id="rId185" name="DownMember1_23">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24835,7 +24838,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9393" r:id="rId185" name="AddedMember1_24">
+        <control shapeId="9393" r:id="rId186" name="AddedMember1_24">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24857,7 +24860,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9394" r:id="rId186" name="ChangeMember1_24">
+        <control shapeId="9394" r:id="rId187" name="ChangeMember1_24">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24879,7 +24882,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9395" r:id="rId187" name="UpMember1_24">
+        <control shapeId="9395" r:id="rId188" name="UpMember1_24">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24901,7 +24904,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9396" r:id="rId188" name="DownMember1_24">
+        <control shapeId="9396" r:id="rId189" name="DownMember1_24">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24923,7 +24926,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9397" r:id="rId189" name="AddedMember1_25">
+        <control shapeId="9397" r:id="rId190" name="AddedMember1_25">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24945,7 +24948,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9398" r:id="rId190" name="ChangeMember1_25">
+        <control shapeId="9398" r:id="rId191" name="ChangeMember1_25">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24967,7 +24970,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9399" r:id="rId191" name="UpMember1_25">
+        <control shapeId="9399" r:id="rId192" name="UpMember1_25">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -24989,7 +24992,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9400" r:id="rId192" name="DownMember1_25">
+        <control shapeId="9400" r:id="rId193" name="DownMember1_25">
           <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="_xll.IBPXLClient.TechnicalCategory.ButtonActionInIBPClientFormattingSheet">
             <anchor moveWithCells="1">
               <from>
@@ -25034,38 +25037,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="114" t="str">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115" t="str">
         <f>" "&amp;IFERROR(IF(SOP_Favorite_Name&lt;&gt;" ",SOP_Favorite_Name,IF(SOP_Template_Name&lt;&gt;" ",SOP_Template_Name,"Ad Hoc Planning View")),"Offline")</f>
         <v xml:space="preserve"> Ad Hoc Planning View</v>
       </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="115" t="str">
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="116" t="str">
         <f>"User: "&amp;_xll.IBPUser()&amp;"   |    Planning Area: "&amp;IFERROR(SOP_Planning_Area,"Offline")&amp;"
 "&amp;"Template: "&amp;IFERROR(SOP_Template_Name,"none")</f>
         <v xml:space="preserve">User: #Error, no current connection.   |    Planning Area:  
 Template:  </v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
       <c r="W1" s="46"/>
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
@@ -25099,7 +25102,7 @@
       <c r="CG1" s="36"/>
     </row>
     <row r="2" spans="1:85" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="str">
+      <c r="A2" s="117" t="str">
         <f>SOP_Filter_Name&amp;" ("&amp;SOP_Filter_Criteria_Count&amp;" criteria):"&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,1),"")&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,2),"")&amp;"
@@ -25117,30 +25120,30 @@
         <v xml:space="preserve">(None) (0 criteria):
 </v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118" t="str">
         <f>"  Last Refresh: "&amp;IFERROR(YEAR(SOP_Refresh_Timestamp)&amp;"-"&amp;TEXT(SOP_Refresh_Timestamp,"MMM")&amp;"-"&amp;DAY(SOP_Refresh_Timestamp)&amp;"   "&amp;TEXT(SOP_Refresh_Timestamp,"HH:MM:SS"),"Offline")</f>
         <v xml:space="preserve">  Last Refresh: 1900-Jan-0   00:00:00</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
       <c r="W2" s="46"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="33"/>
@@ -25310,38 +25313,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="114" t="str">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115" t="str">
         <f>" "&amp;IFERROR(IF(SOP_Favorite_Name&lt;&gt;" ",SOP_Favorite_Name,IF(SOP_Template_Name&lt;&gt;" ",SOP_Template_Name,"Ad Hoc Planning View")),"Offline")</f>
         <v xml:space="preserve"> Ad Hoc Planning View</v>
       </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="115" t="str">
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="116" t="str">
         <f>"User: "&amp;_xll.IBPUser()&amp;"   |    Planning Area: "&amp;IFERROR(SOP_Planning_Area,"Offline")&amp;"
 "&amp;"Template: "&amp;IFERROR(SOP_Template_Name,"none")</f>
         <v xml:space="preserve">User: #Error, no current connection.   |    Planning Area:  
 Template:  </v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
       <c r="W1" s="46"/>
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
@@ -25375,7 +25378,7 @@
       <c r="CG1" s="36"/>
     </row>
     <row r="2" spans="1:85" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="str">
+      <c r="A2" s="117" t="str">
         <f>SOP_Filter_Name&amp;" ("&amp;SOP_Filter_Criteria_Count&amp;" criteria):"&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,1),"")&amp;"
 "&amp;IFERROR(INDEX(SOP_Filter,2),"")&amp;"
@@ -25393,30 +25396,30 @@
         <v xml:space="preserve">(None) (0 criteria):
 </v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118" t="str">
         <f>"  Last Refresh: "&amp;IFERROR(YEAR(SOP_Refresh_Timestamp)&amp;"-"&amp;TEXT(SOP_Refresh_Timestamp,"MMM")&amp;"-"&amp;DAY(SOP_Refresh_Timestamp)&amp;"   "&amp;TEXT(SOP_Refresh_Timestamp,"HH:MM:SS"),"Offline")</f>
         <v xml:space="preserve">  Last Refresh: 1900-Jan-0   00:00:00</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
       <c r="W2" s="46"/>
       <c r="X2" s="33"/>
       <c r="Y2" s="33"/>
@@ -25530,16 +25533,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <picture r:id="rId5"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+  <picture r:id="rId6"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="5121" r:id="rId7" name="FPMExcelClientSheetOptionstb1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -25558,13 +25562,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId6" name="FPMExcelClientSheetOptionstb1"/>
+        <control shapeId="5121" r:id="rId7" name="FPMExcelClientSheetOptionstb1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId8" name="TextBox2">
-          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId9">
+        <control shapeId="5127" r:id="rId9" name="TextBox2">
+          <controlPr defaultSize="0" disabled="1" autoLine="0" r:id="rId10">
             <anchor>
               <from>
                 <xdr:col>8</xdr:col>
@@ -25583,125 +25587,9 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5127" r:id="rId8" name="TextBox2"/>
+        <control shapeId="5127" r:id="rId9" name="TextBox2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<config xmlns="http://com.sap.sop/sopconfig">
-  <ReportType xmlns="">SOP</ReportType>
-  <template xmlns=""/>
-  <favorite xmlns=""/>
-  <bookSettings xmlns="">
-    <scenarios>
-      <value>__BASELINE</value>
-    </scenarios>
-    <simulations>
-      <value>__PLAN</value>
-    </simulations>
-    <planningUnits>
-      <planningVersion>__BASELINE</planningVersion>
-      <planningScenario>__PLAN</planningScenario>
-    </planningUnits>
-  </bookSettings>
-  <report_ xmlns="">
-    <settings>
-      <flexibleTime>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID0</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>true</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>-30</fromRelative>
-          <toRelative>29</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T23:59:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>0</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID4</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>false</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>0</fromRelative>
-          <toRelative>9</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T00:00:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>-30</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-        <time>
-          <flexVersion>1</flexVersion>
-          <dimension>PERIODID3</dimension>
-          <rolling>1</rolling>
-          <mode>0</mode>
-          <totalName/>
-          <realTime>false</realTime>
-          <fromAbsolute/>
-          <toAbsolute/>
-          <fromRelative>-1</fromRelative>
-          <toRelative>3</toRelative>
-          <fromTimeAbsolute>0001-01-01T00:00:00</fromTimeAbsolute>
-          <toTimeAbsolute>0001-01-01T00:00:00</toTimeAbsolute>
-          <fromTimeRelativeInDays>-30</fromTimeRelativeInDays>
-          <toTimeRelativeInDays>29</toTimeRelativeInDays>
-        </time>
-      </flexibleTime>
-      <planningLevels>
-        <value>CUSTID</value>
-        <value>LOCID</value>
-        <value>PRDID</value>
-      </planningLevels>
-      <keyFigures>
-        <value>ACTUALSPRICE</value>
-      </keyFigures>
-      <conversions>
-        <conversion>
-          <dimension>CURRTOID</dimension>
-          <member>EUR</member>
-        </conversion>
-        <conversion>
-          <dimension>UOMTOID</dimension>
-          <member>KG</member>
-        </conversion>
-      </conversions>
-      <rowAxis>
-        <value>CUSTID</value>
-        <value>LOCID</value>
-        <value>PRDID</value>
-        <value>KEY_FIGURES</value>
-      </rowAxis>
-      <columnAxis>
-        <value>PERIODID</value>
-      </columnAxis>
-      <alerts/>
-      <dimsDispOptnId/>
-      <dimsDispOptnBoth/>
-      <dimsTmpltFltrMandatory/>
-      <dimsTmpltFltrOptional/>
-      <alertsOnly>false</alertsOnly>
-    </settings>
-  </report_>
-</config>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66EFAFC6-739D-4AB2-BBC3-1B5A47B064C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://com.sap.sop/sopconfig"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>